--- a/Tools/LGTM/LGTM++Results.xlsx
+++ b/Tools/LGTM/LGTM++Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexoneill/Documents/GitHub/OSC-Code/Tools/LGTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943A5B88-CCBB-3C46-9185-A380D1197F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238CF1F-F928-AB4E-918A-F13DA092DCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{061182E0-336D-334D-A733-F82518BD4873}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="134">
   <si>
     <t>Code injection custom 2</t>
   </si>
@@ -434,7 +434,7 @@
     <t>/alt-0.18.6/package/lib/store/StoreMixin.js</t>
   </si>
   <si>
-    <t>Comma Operator</t>
+    <t>Comma</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F450ED-99A3-B242-A560-54A2B1D64CA9}">
   <dimension ref="A1:I941"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B938" sqref="B938"/>
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+      <selection activeCell="E939" sqref="E939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7764,13 +7764,13 @@
         <v>27</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F240" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G240" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H240" s="2">
         <v>107</v>
@@ -7793,13 +7793,13 @@
         <v>27</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F241" s="2">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G241" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H241" s="2">
         <v>133</v>
@@ -7822,13 +7822,13 @@
         <v>27</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F242" s="2">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="G242" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H242" s="2">
         <v>85</v>
@@ -7851,10 +7851,10 @@
         <v>27</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F243" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="G243" s="2">
         <v>7</v>
@@ -7883,10 +7883,10 @@
         <v>12</v>
       </c>
       <c r="F244" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="G244" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H244" s="2">
         <v>135</v>
@@ -7912,10 +7912,10 @@
         <v>12</v>
       </c>
       <c r="F245" s="2">
-        <v>282</v>
+        <v>1551</v>
       </c>
       <c r="G245" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H245" s="2">
         <v>282</v>
@@ -7941,7 +7941,7 @@
         <v>12</v>
       </c>
       <c r="F246" s="2">
-        <v>1551</v>
+        <v>8563</v>
       </c>
       <c r="G246" s="2">
         <v>7</v>
@@ -7967,13 +7967,13 @@
         <v>27</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F247" s="2">
-        <v>8563</v>
+        <v>25</v>
       </c>
       <c r="G247" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H247" s="2">
         <v>8563</v>
@@ -7996,13 +7996,13 @@
         <v>27</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F248" s="2">
-        <v>25</v>
+        <v>1395</v>
       </c>
       <c r="G248" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H248" s="2">
         <v>25</v>
@@ -8028,10 +8028,10 @@
         <v>13</v>
       </c>
       <c r="F249" s="2">
-        <v>1395</v>
+        <v>1497</v>
       </c>
       <c r="G249" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H249" s="2">
         <v>1395</v>
@@ -8054,13 +8054,13 @@
         <v>27</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F250" s="2">
-        <v>1497</v>
+        <v>1395</v>
       </c>
       <c r="G250" s="2">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H250" s="2">
         <v>1497</v>
@@ -8086,10 +8086,10 @@
         <v>14</v>
       </c>
       <c r="F251" s="2">
-        <v>1395</v>
+        <v>1497</v>
       </c>
       <c r="G251" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H251" s="2">
         <v>1395</v>
@@ -8112,13 +8112,13 @@
         <v>27</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F252" s="2">
-        <v>1497</v>
+        <v>1391</v>
       </c>
       <c r="G252" s="2">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H252" s="2">
         <v>1497</v>
@@ -8144,10 +8144,10 @@
         <v>15</v>
       </c>
       <c r="F253" s="2">
-        <v>1391</v>
+        <v>1493</v>
       </c>
       <c r="G253" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H253" s="2">
         <v>1391</v>
@@ -8170,13 +8170,13 @@
         <v>27</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F254" s="2">
-        <v>1493</v>
+        <v>631</v>
       </c>
       <c r="G254" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H254" s="2">
         <v>1493</v>
@@ -8202,10 +8202,10 @@
         <v>16</v>
       </c>
       <c r="F255" s="2">
-        <v>631</v>
+        <v>1206</v>
       </c>
       <c r="G255" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H255" s="2">
         <v>631</v>
@@ -8231,10 +8231,10 @@
         <v>16</v>
       </c>
       <c r="F256" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G256" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H256" s="2">
         <v>1206</v>
@@ -8260,7 +8260,7 @@
         <v>16</v>
       </c>
       <c r="F257" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G257" s="2">
         <v>10</v>
@@ -8289,10 +8289,10 @@
         <v>16</v>
       </c>
       <c r="F258" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G258" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H258" s="2">
         <v>1210</v>
@@ -8318,10 +8318,10 @@
         <v>16</v>
       </c>
       <c r="F259" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G259" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H259" s="2">
         <v>1212</v>
@@ -8347,7 +8347,7 @@
         <v>16</v>
       </c>
       <c r="F260" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G260" s="2">
         <v>10</v>
@@ -8376,7 +8376,7 @@
         <v>16</v>
       </c>
       <c r="F261" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G261" s="2">
         <v>10</v>
@@ -8405,10 +8405,10 @@
         <v>16</v>
       </c>
       <c r="F262" s="2">
-        <v>1218</v>
+        <v>2796</v>
       </c>
       <c r="G262" s="2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H262" s="2">
         <v>1218</v>
@@ -8434,10 +8434,10 @@
         <v>16</v>
       </c>
       <c r="F263" s="2">
-        <v>2796</v>
+        <v>2898</v>
       </c>
       <c r="G263" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H263" s="2">
         <v>2796</v>
@@ -8460,13 +8460,13 @@
         <v>27</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F264" s="2">
-        <v>2898</v>
+        <v>1549</v>
       </c>
       <c r="G264" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H264" s="2">
         <v>2898</v>
@@ -8492,10 +8492,10 @@
         <v>67</v>
       </c>
       <c r="F265" s="2">
-        <v>1549</v>
+        <v>1682</v>
       </c>
       <c r="G265" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H265" s="2">
         <v>1549</v>
@@ -8521,10 +8521,10 @@
         <v>67</v>
       </c>
       <c r="F266" s="2">
-        <v>1682</v>
+        <v>1788</v>
       </c>
       <c r="G266" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H266" s="2">
         <v>1682</v>
@@ -8550,10 +8550,10 @@
         <v>67</v>
       </c>
       <c r="F267" s="2">
-        <v>1788</v>
+        <v>1989</v>
       </c>
       <c r="G267" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H267" s="2">
         <v>1788</v>
@@ -8579,10 +8579,10 @@
         <v>67</v>
       </c>
       <c r="F268" s="2">
-        <v>1989</v>
+        <v>2144</v>
       </c>
       <c r="G268" s="2">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H268" s="2">
         <v>1989</v>
@@ -8605,13 +8605,13 @@
         <v>27</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F269" s="2">
-        <v>2144</v>
+        <v>31</v>
       </c>
       <c r="G269" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H269" s="2">
         <v>2144</v>
@@ -8634,13 +8634,13 @@
         <v>27</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F270" s="2">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G270" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H270" s="2">
         <v>31</v>
@@ -8663,13 +8663,13 @@
         <v>27</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F271" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G271" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H271" s="2">
         <v>75</v>
@@ -8695,10 +8695,10 @@
         <v>70</v>
       </c>
       <c r="F272" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G272" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H272" s="2">
         <v>41</v>
@@ -8721,13 +8721,13 @@
         <v>27</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F273" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G273" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H273" s="2">
         <v>43</v>
@@ -8753,10 +8753,10 @@
         <v>71</v>
       </c>
       <c r="F274" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G274" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H274" s="2">
         <v>92</v>
@@ -8782,10 +8782,10 @@
         <v>71</v>
       </c>
       <c r="F275" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G275" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H275" s="2">
         <v>105</v>
@@ -8808,13 +8808,13 @@
         <v>27</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F276" s="2">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G276" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H276" s="2">
         <v>150</v>
@@ -8840,10 +8840,10 @@
         <v>72</v>
       </c>
       <c r="F277" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G277" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H277" s="2">
         <v>68</v>
@@ -8869,10 +8869,10 @@
         <v>72</v>
       </c>
       <c r="F278" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G278" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H278" s="2">
         <v>70</v>
@@ -8898,10 +8898,10 @@
         <v>72</v>
       </c>
       <c r="F279" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G279" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H279" s="2">
         <v>77</v>
@@ -8927,7 +8927,7 @@
         <v>72</v>
       </c>
       <c r="F280" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G280" s="2">
         <v>7</v>
@@ -8956,7 +8956,7 @@
         <v>72</v>
       </c>
       <c r="F281" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G281" s="2">
         <v>7</v>
@@ -8985,7 +8985,7 @@
         <v>72</v>
       </c>
       <c r="F282" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G282" s="2">
         <v>7</v>
@@ -9014,7 +9014,7 @@
         <v>72</v>
       </c>
       <c r="F283" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G283" s="2">
         <v>7</v>
@@ -9043,10 +9043,10 @@
         <v>72</v>
       </c>
       <c r="F284" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G284" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H284" s="2">
         <v>117</v>
@@ -9072,10 +9072,10 @@
         <v>72</v>
       </c>
       <c r="F285" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G285" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H285" s="2">
         <v>132</v>
@@ -9098,13 +9098,13 @@
         <v>27</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F286" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="G286" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H286" s="2">
         <v>153</v>
@@ -9130,10 +9130,10 @@
         <v>73</v>
       </c>
       <c r="F287" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="G287" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H287" s="2">
         <v>41</v>
@@ -9156,13 +9156,13 @@
         <v>27</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F288" s="2">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="G288" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H288" s="2">
         <v>205</v>
@@ -9188,7 +9188,7 @@
         <v>74</v>
       </c>
       <c r="F289" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G289" s="2">
         <v>7</v>
@@ -9217,10 +9217,10 @@
         <v>74</v>
       </c>
       <c r="F290" s="2">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G290" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H290" s="2">
         <v>47</v>
@@ -9243,10 +9243,10 @@
         <v>27</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F291" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G291" s="2">
         <v>38</v>
@@ -9272,10 +9272,10 @@
         <v>27</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F292" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G292" s="2">
         <v>38</v>
@@ -9301,13 +9301,13 @@
         <v>27</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F293" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="G293" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H293" s="2">
         <v>118</v>
@@ -9333,7 +9333,7 @@
         <v>77</v>
       </c>
       <c r="F294" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G294" s="2">
         <v>18</v>
@@ -9362,10 +9362,10 @@
         <v>77</v>
       </c>
       <c r="F295" s="2">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="G295" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H295" s="2">
         <v>87</v>
@@ -9391,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="F296" s="2">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="G296" s="2">
         <v>7</v>
@@ -9420,10 +9420,10 @@
         <v>77</v>
       </c>
       <c r="F297" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G297" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H297" s="2">
         <v>239</v>
@@ -9446,10 +9446,10 @@
         <v>27</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F298" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G298" s="2">
         <v>38</v>
@@ -9475,13 +9475,13 @@
         <v>27</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F299" s="2">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="G299" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H299" s="2">
         <v>273</v>
@@ -9507,10 +9507,10 @@
         <v>79</v>
       </c>
       <c r="F300" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G300" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H300" s="2">
         <v>189</v>
@@ -9536,10 +9536,10 @@
         <v>79</v>
       </c>
       <c r="F301" s="2">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="G301" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H301" s="2">
         <v>191</v>
@@ -9565,10 +9565,10 @@
         <v>79</v>
       </c>
       <c r="F302" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G302" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H302" s="2">
         <v>335</v>
@@ -9594,10 +9594,10 @@
         <v>79</v>
       </c>
       <c r="F303" s="2">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G303" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H303" s="2">
         <v>348</v>
@@ -9623,10 +9623,10 @@
         <v>79</v>
       </c>
       <c r="F304" s="2">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="G304" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H304" s="2">
         <v>393</v>
@@ -9652,10 +9652,10 @@
         <v>79</v>
       </c>
       <c r="F305" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G305" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H305" s="2">
         <v>486</v>
@@ -9681,10 +9681,10 @@
         <v>79</v>
       </c>
       <c r="F306" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G306" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H306" s="2">
         <v>488</v>
@@ -9710,10 +9710,10 @@
         <v>79</v>
       </c>
       <c r="F307" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G307" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H307" s="2">
         <v>495</v>
@@ -9739,7 +9739,7 @@
         <v>79</v>
       </c>
       <c r="F308" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G308" s="2">
         <v>7</v>
@@ -9768,7 +9768,7 @@
         <v>79</v>
       </c>
       <c r="F309" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G309" s="2">
         <v>7</v>
@@ -9797,7 +9797,7 @@
         <v>79</v>
       </c>
       <c r="F310" s="2">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G310" s="2">
         <v>7</v>
@@ -9826,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="F311" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G311" s="2">
         <v>7</v>
@@ -9855,10 +9855,10 @@
         <v>79</v>
       </c>
       <c r="F312" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="G312" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H312" s="2">
         <v>535</v>
@@ -9884,10 +9884,10 @@
         <v>79</v>
       </c>
       <c r="F313" s="2">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="G313" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H313" s="2">
         <v>550</v>
@@ -9913,10 +9913,10 @@
         <v>79</v>
       </c>
       <c r="F314" s="2">
-        <v>571</v>
+        <v>765</v>
       </c>
       <c r="G314" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H314" s="2">
         <v>571</v>
@@ -9942,10 +9942,10 @@
         <v>79</v>
       </c>
       <c r="F315" s="2">
-        <v>765</v>
+        <v>929</v>
       </c>
       <c r="G315" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H315" s="2">
         <v>765</v>
@@ -9971,10 +9971,10 @@
         <v>79</v>
       </c>
       <c r="F316" s="2">
-        <v>929</v>
+        <v>1037</v>
       </c>
       <c r="G316" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H316" s="2">
         <v>929</v>
@@ -10000,7 +10000,7 @@
         <v>79</v>
       </c>
       <c r="F317" s="2">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="G317" s="2">
         <v>18</v>
@@ -10029,10 +10029,10 @@
         <v>79</v>
       </c>
       <c r="F318" s="2">
-        <v>1049</v>
+        <v>1119</v>
       </c>
       <c r="G318" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H318" s="2">
         <v>1049</v>
@@ -10058,7 +10058,7 @@
         <v>79</v>
       </c>
       <c r="F319" s="2">
-        <v>1119</v>
+        <v>1201</v>
       </c>
       <c r="G319" s="2">
         <v>7</v>
@@ -10087,10 +10087,10 @@
         <v>79</v>
       </c>
       <c r="F320" s="2">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="G320" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H320" s="2">
         <v>1201</v>
@@ -10116,10 +10116,10 @@
         <v>79</v>
       </c>
       <c r="F321" s="2">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="G321" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H321" s="2">
         <v>1220</v>
@@ -10145,7 +10145,7 @@
         <v>79</v>
       </c>
       <c r="F322" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="G322" s="2">
         <v>7</v>
@@ -10174,10 +10174,10 @@
         <v>79</v>
       </c>
       <c r="F323" s="2">
-        <v>1284</v>
+        <v>1327</v>
       </c>
       <c r="G323" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H323" s="2">
         <v>1284</v>
@@ -10203,7 +10203,7 @@
         <v>79</v>
       </c>
       <c r="F324" s="2">
-        <v>1327</v>
+        <v>1469</v>
       </c>
       <c r="G324" s="2">
         <v>38</v>
@@ -10232,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="F325" s="2">
-        <v>1469</v>
+        <v>1607</v>
       </c>
       <c r="G325" s="2">
         <v>38</v>
@@ -10261,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="F326" s="2">
-        <v>1607</v>
+        <v>1896</v>
       </c>
       <c r="G326" s="2">
         <v>38</v>
@@ -10290,7 +10290,7 @@
         <v>79</v>
       </c>
       <c r="F327" s="2">
-        <v>1896</v>
+        <v>1998</v>
       </c>
       <c r="G327" s="2">
         <v>38</v>
@@ -10316,13 +10316,13 @@
         <v>27</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F328" s="2">
-        <v>1998</v>
+        <v>2</v>
       </c>
       <c r="G328" s="2">
-        <v>38</v>
+        <v>2260</v>
       </c>
       <c r="H328" s="2">
         <v>1998</v>
@@ -10351,7 +10351,7 @@
         <v>2</v>
       </c>
       <c r="G329" s="2">
-        <v>2260</v>
+        <v>2616</v>
       </c>
       <c r="H329" s="2">
         <v>2</v>
@@ -10380,7 +10380,7 @@
         <v>2</v>
       </c>
       <c r="G330" s="2">
-        <v>2616</v>
+        <v>16213</v>
       </c>
       <c r="H330" s="2">
         <v>2</v>
@@ -10409,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="G331" s="2">
-        <v>16213</v>
+        <v>16328</v>
       </c>
       <c r="H331" s="2">
         <v>2</v>
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="G332" s="2">
-        <v>16328</v>
+        <v>16363</v>
       </c>
       <c r="H332" s="2">
         <v>2</v>
@@ -10467,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="G333" s="2">
-        <v>16363</v>
+        <v>26894</v>
       </c>
       <c r="H333" s="2">
         <v>2</v>
@@ -10496,7 +10496,7 @@
         <v>2</v>
       </c>
       <c r="G334" s="2">
-        <v>26894</v>
+        <v>28720</v>
       </c>
       <c r="H334" s="2">
         <v>2</v>
@@ -10522,10 +10522,10 @@
         <v>18</v>
       </c>
       <c r="F335" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G335" s="2">
-        <v>28720</v>
+        <v>3769</v>
       </c>
       <c r="H335" s="2">
         <v>2</v>
@@ -10554,7 +10554,7 @@
         <v>3</v>
       </c>
       <c r="G336" s="2">
-        <v>3769</v>
+        <v>13694</v>
       </c>
       <c r="H336" s="2">
         <v>3</v>
@@ -10583,7 +10583,7 @@
         <v>3</v>
       </c>
       <c r="G337" s="2">
-        <v>13694</v>
+        <v>14499</v>
       </c>
       <c r="H337" s="2">
         <v>3</v>
@@ -10612,7 +10612,7 @@
         <v>3</v>
       </c>
       <c r="G338" s="2">
-        <v>14499</v>
+        <v>14949</v>
       </c>
       <c r="H338" s="2">
         <v>3</v>
@@ -10641,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="G339" s="2">
-        <v>14949</v>
+        <v>21521</v>
       </c>
       <c r="H339" s="2">
         <v>3</v>
@@ -10667,10 +10667,10 @@
         <v>18</v>
       </c>
       <c r="F340" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G340" s="2">
-        <v>21521</v>
+        <v>3381</v>
       </c>
       <c r="H340" s="2">
         <v>3</v>
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="G341" s="2">
-        <v>3381</v>
+        <v>3477</v>
       </c>
       <c r="H341" s="2">
         <v>4</v>
@@ -10728,7 +10728,7 @@
         <v>4</v>
       </c>
       <c r="G342" s="2">
-        <v>3477</v>
+        <v>14851</v>
       </c>
       <c r="H342" s="2">
         <v>4</v>
@@ -10757,7 +10757,7 @@
         <v>4</v>
       </c>
       <c r="G343" s="2">
-        <v>14851</v>
+        <v>16159</v>
       </c>
       <c r="H343" s="2">
         <v>4</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="G344" s="2">
-        <v>16159</v>
+        <v>17202</v>
       </c>
       <c r="H344" s="2">
         <v>4</v>
@@ -10815,7 +10815,7 @@
         <v>4</v>
       </c>
       <c r="G345" s="2">
-        <v>17202</v>
+        <v>19691</v>
       </c>
       <c r="H345" s="2">
         <v>4</v>
@@ -10844,7 +10844,7 @@
         <v>4</v>
       </c>
       <c r="G346" s="2">
-        <v>19691</v>
+        <v>20940</v>
       </c>
       <c r="H346" s="2">
         <v>4</v>
@@ -10873,7 +10873,7 @@
         <v>4</v>
       </c>
       <c r="G347" s="2">
-        <v>20940</v>
+        <v>20948</v>
       </c>
       <c r="H347" s="2">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>4</v>
       </c>
       <c r="G348" s="2">
-        <v>20948</v>
+        <v>21769</v>
       </c>
       <c r="H348" s="2">
         <v>4</v>
@@ -10931,7 +10931,7 @@
         <v>4</v>
       </c>
       <c r="G349" s="2">
-        <v>21769</v>
+        <v>24692</v>
       </c>
       <c r="H349" s="2">
         <v>4</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="G350" s="2">
-        <v>24692</v>
+        <v>28951</v>
       </c>
       <c r="H350" s="2">
         <v>4</v>
@@ -10989,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="G351" s="2">
-        <v>28951</v>
+        <v>29069</v>
       </c>
       <c r="H351" s="2">
         <v>4</v>
@@ -11012,13 +11012,13 @@
         <v>27</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F352" s="2">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G352" s="2">
-        <v>29069</v>
+        <v>38</v>
       </c>
       <c r="H352" s="2">
         <v>4</v>
@@ -11041,13 +11041,13 @@
         <v>27</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F353" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G353" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H353" s="2">
         <v>75</v>
@@ -11073,10 +11073,10 @@
         <v>81</v>
       </c>
       <c r="F354" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G354" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H354" s="2">
         <v>41</v>
@@ -11099,13 +11099,13 @@
         <v>27</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F355" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G355" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H355" s="2">
         <v>43</v>
@@ -11131,10 +11131,10 @@
         <v>82</v>
       </c>
       <c r="F356" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G356" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H356" s="2">
         <v>92</v>
@@ -11160,10 +11160,10 @@
         <v>82</v>
       </c>
       <c r="F357" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G357" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H357" s="2">
         <v>105</v>
@@ -11186,13 +11186,13 @@
         <v>27</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F358" s="2">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G358" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H358" s="2">
         <v>150</v>
@@ -11218,10 +11218,10 @@
         <v>83</v>
       </c>
       <c r="F359" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G359" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H359" s="2">
         <v>68</v>
@@ -11247,10 +11247,10 @@
         <v>83</v>
       </c>
       <c r="F360" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G360" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H360" s="2">
         <v>70</v>
@@ -11276,10 +11276,10 @@
         <v>83</v>
       </c>
       <c r="F361" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G361" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H361" s="2">
         <v>77</v>
@@ -11305,7 +11305,7 @@
         <v>83</v>
       </c>
       <c r="F362" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G362" s="2">
         <v>7</v>
@@ -11334,7 +11334,7 @@
         <v>83</v>
       </c>
       <c r="F363" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G363" s="2">
         <v>7</v>
@@ -11363,7 +11363,7 @@
         <v>83</v>
       </c>
       <c r="F364" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G364" s="2">
         <v>7</v>
@@ -11392,7 +11392,7 @@
         <v>83</v>
       </c>
       <c r="F365" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G365" s="2">
         <v>7</v>
@@ -11421,10 +11421,10 @@
         <v>83</v>
       </c>
       <c r="F366" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G366" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H366" s="2">
         <v>117</v>
@@ -11450,10 +11450,10 @@
         <v>83</v>
       </c>
       <c r="F367" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G367" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H367" s="2">
         <v>132</v>
@@ -11476,13 +11476,13 @@
         <v>27</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F368" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="G368" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H368" s="2">
         <v>153</v>
@@ -11508,10 +11508,10 @@
         <v>84</v>
       </c>
       <c r="F369" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="G369" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H369" s="2">
         <v>41</v>
@@ -11534,13 +11534,13 @@
         <v>27</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F370" s="2">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="G370" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H370" s="2">
         <v>205</v>
@@ -11566,7 +11566,7 @@
         <v>85</v>
       </c>
       <c r="F371" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G371" s="2">
         <v>7</v>
@@ -11595,10 +11595,10 @@
         <v>85</v>
       </c>
       <c r="F372" s="2">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G372" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H372" s="2">
         <v>47</v>
@@ -11621,10 +11621,10 @@
         <v>27</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F373" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G373" s="2">
         <v>38</v>
@@ -11650,10 +11650,10 @@
         <v>27</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F374" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G374" s="2">
         <v>38</v>
@@ -11679,13 +11679,13 @@
         <v>27</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F375" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="G375" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H375" s="2">
         <v>118</v>
@@ -11711,7 +11711,7 @@
         <v>88</v>
       </c>
       <c r="F376" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G376" s="2">
         <v>18</v>
@@ -11740,10 +11740,10 @@
         <v>88</v>
       </c>
       <c r="F377" s="2">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="G377" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H377" s="2">
         <v>87</v>
@@ -11769,7 +11769,7 @@
         <v>88</v>
       </c>
       <c r="F378" s="2">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="G378" s="2">
         <v>7</v>
@@ -11798,10 +11798,10 @@
         <v>88</v>
       </c>
       <c r="F379" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G379" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H379" s="2">
         <v>239</v>
@@ -11824,10 +11824,10 @@
         <v>27</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F380" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G380" s="2">
         <v>38</v>
@@ -11853,13 +11853,13 @@
         <v>27</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F381" s="2">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="G381" s="2">
-        <v>38</v>
+        <v>2260</v>
       </c>
       <c r="H381" s="2">
         <v>273</v>
@@ -11888,7 +11888,7 @@
         <v>2</v>
       </c>
       <c r="G382" s="2">
-        <v>2260</v>
+        <v>2616</v>
       </c>
       <c r="H382" s="2">
         <v>2</v>
@@ -11917,7 +11917,7 @@
         <v>2</v>
       </c>
       <c r="G383" s="2">
-        <v>2616</v>
+        <v>16213</v>
       </c>
       <c r="H383" s="2">
         <v>2</v>
@@ -11946,7 +11946,7 @@
         <v>2</v>
       </c>
       <c r="G384" s="2">
-        <v>16213</v>
+        <v>16328</v>
       </c>
       <c r="H384" s="2">
         <v>2</v>
@@ -11975,7 +11975,7 @@
         <v>2</v>
       </c>
       <c r="G385" s="2">
-        <v>16328</v>
+        <v>16363</v>
       </c>
       <c r="H385" s="2">
         <v>2</v>
@@ -12004,7 +12004,7 @@
         <v>2</v>
       </c>
       <c r="G386" s="2">
-        <v>16363</v>
+        <v>26894</v>
       </c>
       <c r="H386" s="2">
         <v>2</v>
@@ -12033,7 +12033,7 @@
         <v>2</v>
       </c>
       <c r="G387" s="2">
-        <v>26894</v>
+        <v>28720</v>
       </c>
       <c r="H387" s="2">
         <v>2</v>
@@ -12059,10 +12059,10 @@
         <v>19</v>
       </c>
       <c r="F388" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G388" s="2">
-        <v>28720</v>
+        <v>3769</v>
       </c>
       <c r="H388" s="2">
         <v>2</v>
@@ -12091,7 +12091,7 @@
         <v>3</v>
       </c>
       <c r="G389" s="2">
-        <v>3769</v>
+        <v>13694</v>
       </c>
       <c r="H389" s="2">
         <v>3</v>
@@ -12120,7 +12120,7 @@
         <v>3</v>
       </c>
       <c r="G390" s="2">
-        <v>13694</v>
+        <v>14499</v>
       </c>
       <c r="H390" s="2">
         <v>3</v>
@@ -12149,7 +12149,7 @@
         <v>3</v>
       </c>
       <c r="G391" s="2">
-        <v>14499</v>
+        <v>14949</v>
       </c>
       <c r="H391" s="2">
         <v>3</v>
@@ -12178,7 +12178,7 @@
         <v>3</v>
       </c>
       <c r="G392" s="2">
-        <v>14949</v>
+        <v>21521</v>
       </c>
       <c r="H392" s="2">
         <v>3</v>
@@ -12204,10 +12204,10 @@
         <v>19</v>
       </c>
       <c r="F393" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G393" s="2">
-        <v>21521</v>
+        <v>3381</v>
       </c>
       <c r="H393" s="2">
         <v>3</v>
@@ -12236,7 +12236,7 @@
         <v>4</v>
       </c>
       <c r="G394" s="2">
-        <v>3381</v>
+        <v>3477</v>
       </c>
       <c r="H394" s="2">
         <v>4</v>
@@ -12265,7 +12265,7 @@
         <v>4</v>
       </c>
       <c r="G395" s="2">
-        <v>3477</v>
+        <v>14851</v>
       </c>
       <c r="H395" s="2">
         <v>4</v>
@@ -12294,7 +12294,7 @@
         <v>4</v>
       </c>
       <c r="G396" s="2">
-        <v>14851</v>
+        <v>16159</v>
       </c>
       <c r="H396" s="2">
         <v>4</v>
@@ -12323,7 +12323,7 @@
         <v>4</v>
       </c>
       <c r="G397" s="2">
-        <v>16159</v>
+        <v>17202</v>
       </c>
       <c r="H397" s="2">
         <v>4</v>
@@ -12352,7 +12352,7 @@
         <v>4</v>
       </c>
       <c r="G398" s="2">
-        <v>17202</v>
+        <v>19691</v>
       </c>
       <c r="H398" s="2">
         <v>4</v>
@@ -12381,7 +12381,7 @@
         <v>4</v>
       </c>
       <c r="G399" s="2">
-        <v>19691</v>
+        <v>20940</v>
       </c>
       <c r="H399" s="2">
         <v>4</v>
@@ -12410,7 +12410,7 @@
         <v>4</v>
       </c>
       <c r="G400" s="2">
-        <v>20940</v>
+        <v>20948</v>
       </c>
       <c r="H400" s="2">
         <v>4</v>
@@ -12439,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="G401" s="2">
-        <v>20948</v>
+        <v>21769</v>
       </c>
       <c r="H401" s="2">
         <v>4</v>
@@ -12468,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="G402" s="2">
-        <v>21769</v>
+        <v>24692</v>
       </c>
       <c r="H402" s="2">
         <v>4</v>
@@ -12497,7 +12497,7 @@
         <v>4</v>
       </c>
       <c r="G403" s="2">
-        <v>24692</v>
+        <v>28951</v>
       </c>
       <c r="H403" s="2">
         <v>4</v>
@@ -12526,7 +12526,7 @@
         <v>4</v>
       </c>
       <c r="G404" s="2">
-        <v>28951</v>
+        <v>29069</v>
       </c>
       <c r="H404" s="2">
         <v>4</v>
@@ -12549,13 +12549,13 @@
         <v>27</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F405" s="2">
-        <v>4</v>
+        <v>1748</v>
       </c>
       <c r="G405" s="2">
-        <v>29069</v>
+        <v>9</v>
       </c>
       <c r="H405" s="2">
         <v>4</v>
@@ -12581,10 +12581,10 @@
         <v>21</v>
       </c>
       <c r="F406" s="2">
-        <v>1748</v>
+        <v>4573</v>
       </c>
       <c r="G406" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H406" s="2">
         <v>1748</v>
@@ -12610,10 +12610,10 @@
         <v>21</v>
       </c>
       <c r="F407" s="2">
-        <v>4573</v>
+        <v>4705</v>
       </c>
       <c r="G407" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="H407" s="2">
         <v>4573</v>
@@ -12639,10 +12639,10 @@
         <v>21</v>
       </c>
       <c r="F408" s="2">
-        <v>4705</v>
+        <v>11994</v>
       </c>
       <c r="G408" s="2">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H408" s="2">
         <v>4705</v>
@@ -12668,10 +12668,10 @@
         <v>21</v>
       </c>
       <c r="F409" s="2">
-        <v>11994</v>
+        <v>12044</v>
       </c>
       <c r="G409" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H409" s="2">
         <v>11994</v>
@@ -12697,10 +12697,10 @@
         <v>21</v>
       </c>
       <c r="F410" s="2">
-        <v>12044</v>
+        <v>12569</v>
       </c>
       <c r="G410" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H410" s="2">
         <v>12044</v>
@@ -12726,10 +12726,10 @@
         <v>21</v>
       </c>
       <c r="F411" s="2">
-        <v>12569</v>
+        <v>18150</v>
       </c>
       <c r="G411" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H411" s="2">
         <v>12569</v>
@@ -12755,10 +12755,10 @@
         <v>21</v>
       </c>
       <c r="F412" s="2">
-        <v>18150</v>
+        <v>30231</v>
       </c>
       <c r="G412" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H412" s="2">
         <v>18150</v>
@@ -12784,10 +12784,10 @@
         <v>21</v>
       </c>
       <c r="F413" s="2">
-        <v>30231</v>
+        <v>30285</v>
       </c>
       <c r="G413" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H413" s="2">
         <v>30231</v>
@@ -12813,7 +12813,7 @@
         <v>21</v>
       </c>
       <c r="F414" s="2">
-        <v>30285</v>
+        <v>30343</v>
       </c>
       <c r="G414" s="2">
         <v>12</v>
@@ -12842,10 +12842,10 @@
         <v>21</v>
       </c>
       <c r="F415" s="2">
-        <v>30343</v>
+        <v>30383</v>
       </c>
       <c r="G415" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H415" s="2">
         <v>30343</v>
@@ -12871,7 +12871,7 @@
         <v>21</v>
       </c>
       <c r="F416" s="2">
-        <v>30383</v>
+        <v>30477</v>
       </c>
       <c r="G416" s="2">
         <v>9</v>
@@ -12900,10 +12900,10 @@
         <v>21</v>
       </c>
       <c r="F417" s="2">
-        <v>30477</v>
+        <v>30483</v>
       </c>
       <c r="G417" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H417" s="2">
         <v>30477</v>
@@ -12929,7 +12929,7 @@
         <v>21</v>
       </c>
       <c r="F418" s="2">
-        <v>30483</v>
+        <v>30486</v>
       </c>
       <c r="G418" s="2">
         <v>13</v>
@@ -12958,10 +12958,10 @@
         <v>21</v>
       </c>
       <c r="F419" s="2">
-        <v>30486</v>
+        <v>30496</v>
       </c>
       <c r="G419" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H419" s="2">
         <v>30486</v>
@@ -12987,10 +12987,10 @@
         <v>21</v>
       </c>
       <c r="F420" s="2">
-        <v>30496</v>
+        <v>30507</v>
       </c>
       <c r="G420" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H420" s="2">
         <v>30496</v>
@@ -13016,10 +13016,10 @@
         <v>21</v>
       </c>
       <c r="F421" s="2">
-        <v>30507</v>
+        <v>30512</v>
       </c>
       <c r="G421" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H421" s="2">
         <v>30507</v>
@@ -13045,10 +13045,10 @@
         <v>21</v>
       </c>
       <c r="F422" s="2">
-        <v>30512</v>
+        <v>30720</v>
       </c>
       <c r="G422" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H422" s="2">
         <v>30512</v>
@@ -13074,10 +13074,10 @@
         <v>21</v>
       </c>
       <c r="F423" s="2">
-        <v>30720</v>
+        <v>32337</v>
       </c>
       <c r="G423" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H423" s="2">
         <v>30720</v>
@@ -13103,10 +13103,10 @@
         <v>21</v>
       </c>
       <c r="F424" s="2">
-        <v>32337</v>
+        <v>33645</v>
       </c>
       <c r="G424" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H424" s="2">
         <v>32337</v>
@@ -13132,10 +13132,10 @@
         <v>21</v>
       </c>
       <c r="F425" s="2">
-        <v>33645</v>
+        <v>33917</v>
       </c>
       <c r="G425" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H425" s="2">
         <v>33645</v>
@@ -13161,10 +13161,10 @@
         <v>21</v>
       </c>
       <c r="F426" s="2">
-        <v>33917</v>
+        <v>37896</v>
       </c>
       <c r="G426" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H426" s="2">
         <v>33917</v>
@@ -13190,10 +13190,10 @@
         <v>21</v>
       </c>
       <c r="F427" s="2">
-        <v>37896</v>
+        <v>40431</v>
       </c>
       <c r="G427" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H427" s="2">
         <v>37896</v>
@@ -13219,10 +13219,10 @@
         <v>21</v>
       </c>
       <c r="F428" s="2">
-        <v>40431</v>
+        <v>41215</v>
       </c>
       <c r="G428" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H428" s="2">
         <v>40431</v>
@@ -13248,10 +13248,10 @@
         <v>21</v>
       </c>
       <c r="F429" s="2">
-        <v>41215</v>
+        <v>53530</v>
       </c>
       <c r="G429" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H429" s="2">
         <v>41215</v>
@@ -13274,13 +13274,13 @@
         <v>27</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F430" s="2">
-        <v>53530</v>
+        <v>208</v>
       </c>
       <c r="G430" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H430" s="2">
         <v>53530</v>
@@ -13306,10 +13306,10 @@
         <v>90</v>
       </c>
       <c r="F431" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G431" s="2">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="H431" s="2">
         <v>208</v>
@@ -13335,10 +13335,10 @@
         <v>90</v>
       </c>
       <c r="F432" s="2">
-        <v>212</v>
+        <v>413</v>
       </c>
       <c r="G432" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H432" s="2">
         <v>212</v>
@@ -13364,10 +13364,10 @@
         <v>90</v>
       </c>
       <c r="F433" s="2">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="G433" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H433" s="2">
         <v>413</v>
@@ -13393,10 +13393,10 @@
         <v>90</v>
       </c>
       <c r="F434" s="2">
-        <v>477</v>
+        <v>597</v>
       </c>
       <c r="G434" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H434" s="2">
         <v>477</v>
@@ -13422,10 +13422,10 @@
         <v>90</v>
       </c>
       <c r="F435" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G435" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H435" s="2">
         <v>599</v>
@@ -13451,10 +13451,10 @@
         <v>90</v>
       </c>
       <c r="F436" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="G436" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H436" s="2">
         <v>611</v>
@@ -13480,7 +13480,7 @@
         <v>90</v>
       </c>
       <c r="F437" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="G437" s="2">
         <v>5</v>
@@ -13512,7 +13512,7 @@
         <v>635</v>
       </c>
       <c r="G438" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H438" s="2">
         <v>635</v>
@@ -13538,10 +13538,10 @@
         <v>90</v>
       </c>
       <c r="F439" s="2">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="G439" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H439" s="2">
         <v>635</v>
@@ -13567,7 +13567,7 @@
         <v>90</v>
       </c>
       <c r="F440" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="G440" s="2">
         <v>5</v>
@@ -13596,10 +13596,10 @@
         <v>90</v>
       </c>
       <c r="F441" s="2">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="G441" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H441" s="2">
         <v>665</v>
@@ -13625,7 +13625,7 @@
         <v>90</v>
       </c>
       <c r="F442" s="2">
-        <v>707</v>
+        <v>1188</v>
       </c>
       <c r="G442" s="2">
         <v>38</v>
@@ -13654,10 +13654,10 @@
         <v>90</v>
       </c>
       <c r="F443" s="2">
-        <v>1188</v>
+        <v>1514</v>
       </c>
       <c r="G443" s="2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H443" s="2">
         <v>1188</v>
@@ -13683,10 +13683,10 @@
         <v>90</v>
       </c>
       <c r="F444" s="2">
-        <v>1514</v>
+        <v>1689</v>
       </c>
       <c r="G444" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H444" s="2">
         <v>1514</v>
@@ -13712,10 +13712,10 @@
         <v>90</v>
       </c>
       <c r="F445" s="2">
-        <v>1689</v>
+        <v>1756</v>
       </c>
       <c r="G445" s="2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H445" s="2">
         <v>1689</v>
@@ -13741,7 +13741,7 @@
         <v>90</v>
       </c>
       <c r="F446" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G446" s="2">
         <v>5</v>
@@ -13770,10 +13770,10 @@
         <v>90</v>
       </c>
       <c r="F447" s="2">
-        <v>1757</v>
+        <v>1809</v>
       </c>
       <c r="G447" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H447" s="2">
         <v>1759</v>
@@ -13799,10 +13799,10 @@
         <v>90</v>
       </c>
       <c r="F448" s="2">
-        <v>1809</v>
+        <v>1896</v>
       </c>
       <c r="G448" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H448" s="2">
         <v>1809</v>
@@ -13828,10 +13828,10 @@
         <v>90</v>
       </c>
       <c r="F449" s="2">
-        <v>1896</v>
+        <v>1974</v>
       </c>
       <c r="G449" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H449" s="2">
         <v>1896</v>
@@ -13857,7 +13857,7 @@
         <v>90</v>
       </c>
       <c r="F450" s="2">
-        <v>1974</v>
+        <v>2126</v>
       </c>
       <c r="G450" s="2">
         <v>38</v>
@@ -13886,7 +13886,7 @@
         <v>90</v>
       </c>
       <c r="F451" s="2">
-        <v>2126</v>
+        <v>2284</v>
       </c>
       <c r="G451" s="2">
         <v>38</v>
@@ -13912,13 +13912,13 @@
         <v>27</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F452" s="2">
-        <v>2284</v>
+        <v>25</v>
       </c>
       <c r="G452" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="H452" s="2">
         <v>2284</v>
@@ -13941,13 +13941,13 @@
         <v>27</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F453" s="2">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="G453" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="H453" s="2">
         <v>25</v>
@@ -13970,13 +13970,13 @@
         <v>27</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F454" s="2">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="G454" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H454" s="2">
         <v>262</v>
@@ -13999,13 +13999,13 @@
         <v>27</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F455" s="2">
-        <v>53</v>
+        <v>606</v>
       </c>
       <c r="G455" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H455" s="2">
         <v>53</v>
@@ -14028,10 +14028,10 @@
         <v>27</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F456" s="2">
-        <v>606</v>
+        <v>248</v>
       </c>
       <c r="G456" s="2">
         <v>11</v>
@@ -14060,10 +14060,10 @@
         <v>95</v>
       </c>
       <c r="F457" s="2">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="G457" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H457" s="2">
         <v>248</v>
@@ -14089,10 +14089,10 @@
         <v>95</v>
       </c>
       <c r="F458" s="2">
-        <v>298</v>
+        <v>834</v>
       </c>
       <c r="G458" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H458" s="2">
         <v>298</v>
@@ -14115,13 +14115,13 @@
         <v>27</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F459" s="2">
-        <v>834</v>
+        <v>706</v>
       </c>
       <c r="G459" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H459" s="2">
         <v>834</v>
@@ -14143,14 +14143,14 @@
       <c r="D460" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E460" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F460" s="2">
-        <v>706</v>
-      </c>
-      <c r="G460" s="2">
+      <c r="E460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F460" s="1">
         <v>30</v>
+      </c>
+      <c r="G460" s="1">
+        <v>12</v>
       </c>
       <c r="H460" s="2">
         <v>706</v>
@@ -14172,14 +14172,14 @@
       <c r="D461" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E461" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F461" s="1">
-        <v>30</v>
-      </c>
-      <c r="G461" s="1">
-        <v>12</v>
+      <c r="E461" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F461" s="2">
+        <v>5030</v>
+      </c>
+      <c r="G461" s="2">
+        <v>11</v>
       </c>
       <c r="H461" s="1">
         <v>30</v>
@@ -14205,10 +14205,10 @@
         <v>4</v>
       </c>
       <c r="F462" s="2">
-        <v>5030</v>
+        <v>19648</v>
       </c>
       <c r="G462" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H462" s="2">
         <v>5030</v>
@@ -14234,7 +14234,7 @@
         <v>4</v>
       </c>
       <c r="F463" s="2">
-        <v>19648</v>
+        <v>19720</v>
       </c>
       <c r="G463" s="2">
         <v>15</v>
@@ -14260,13 +14260,13 @@
         <v>24</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F464" s="2">
-        <v>19720</v>
+        <v>1103</v>
       </c>
       <c r="G464" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H464" s="2">
         <v>19720</v>
@@ -14289,13 +14289,13 @@
         <v>24</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F465" s="2">
-        <v>1103</v>
+        <v>898</v>
       </c>
       <c r="G465" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H465" s="2">
         <v>1103</v>
@@ -14318,13 +14318,13 @@
         <v>24</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F466" s="2">
-        <v>898</v>
+        <v>1474</v>
       </c>
       <c r="G466" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H466" s="2">
         <v>898</v>
@@ -14347,13 +14347,13 @@
         <v>24</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F467" s="2">
-        <v>1474</v>
+        <v>181</v>
       </c>
       <c r="G467" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H467" s="2">
         <v>1474</v>
@@ -14379,7 +14379,7 @@
         <v>33</v>
       </c>
       <c r="F468" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G468" s="2">
         <v>9</v>
@@ -14408,10 +14408,10 @@
         <v>33</v>
       </c>
       <c r="F469" s="2">
-        <v>190</v>
+        <v>578</v>
       </c>
       <c r="G469" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H469" s="2">
         <v>190</v>
@@ -14437,7 +14437,7 @@
         <v>33</v>
       </c>
       <c r="F470" s="2">
-        <v>578</v>
+        <v>956</v>
       </c>
       <c r="G470" s="2">
         <v>14</v>
@@ -14463,10 +14463,10 @@
         <v>24</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F471" s="2">
-        <v>956</v>
+        <v>2678</v>
       </c>
       <c r="G471" s="2">
         <v>14</v>
@@ -14495,10 +14495,10 @@
         <v>5</v>
       </c>
       <c r="F472" s="2">
-        <v>612</v>
+        <v>3048</v>
       </c>
       <c r="G472" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H472" s="2">
         <v>612</v>
@@ -14524,10 +14524,10 @@
         <v>5</v>
       </c>
       <c r="F473" s="2">
-        <v>2678</v>
+        <v>8884</v>
       </c>
       <c r="G473" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H473" s="2">
         <v>2678</v>
@@ -14553,10 +14553,10 @@
         <v>5</v>
       </c>
       <c r="F474" s="2">
-        <v>3048</v>
+        <v>8969</v>
       </c>
       <c r="G474" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H474" s="2">
         <v>3048</v>
@@ -14579,13 +14579,13 @@
         <v>24</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F475" s="2">
-        <v>8884</v>
+        <v>1595</v>
       </c>
       <c r="G475" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H475" s="2">
         <v>8884</v>
@@ -14608,13 +14608,13 @@
         <v>24</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F476" s="2">
-        <v>8969</v>
+        <v>1599</v>
       </c>
       <c r="G476" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H476" s="2">
         <v>8969</v>
@@ -14640,10 +14640,10 @@
         <v>97</v>
       </c>
       <c r="F477" s="2">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="G477" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H477" s="2">
         <v>1595</v>
@@ -14666,13 +14666,13 @@
         <v>24</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F478" s="2">
-        <v>1599</v>
+        <v>748</v>
       </c>
       <c r="G478" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H478" s="2">
         <v>1599</v>
@@ -14695,13 +14695,13 @@
         <v>24</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F479" s="2">
-        <v>1613</v>
+        <v>521</v>
       </c>
       <c r="G479" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H479" s="2">
         <v>1613</v>
@@ -14724,13 +14724,13 @@
         <v>24</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F480" s="2">
-        <v>748</v>
+        <v>519</v>
       </c>
       <c r="G480" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H480" s="2">
         <v>748</v>
@@ -14753,10 +14753,10 @@
         <v>24</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F481" s="2">
-        <v>521</v>
+        <v>144</v>
       </c>
       <c r="G481" s="2">
         <v>7</v>
@@ -14782,10 +14782,10 @@
         <v>24</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F482" s="2">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="G482" s="2">
         <v>9</v>
@@ -14811,13 +14811,13 @@
         <v>24</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F483" s="2">
-        <v>144</v>
+        <v>1788</v>
       </c>
       <c r="G483" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H483" s="2">
         <v>144</v>
@@ -14840,13 +14840,13 @@
         <v>24</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F484" s="2">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="G484" s="2">
-        <v>9</v>
+        <v>16001</v>
       </c>
       <c r="H484" s="2">
         <v>451</v>
@@ -14869,13 +14869,13 @@
         <v>24</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F485" s="2">
-        <v>1788</v>
+        <v>1</v>
       </c>
       <c r="G485" s="2">
-        <v>13</v>
+        <v>80903</v>
       </c>
       <c r="H485" s="2">
         <v>1788</v>
@@ -14898,13 +14898,13 @@
         <v>24</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F486" s="2">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="G486" s="2">
-        <v>16001</v>
+        <v>17</v>
       </c>
       <c r="H486" s="2">
         <v>1</v>
@@ -14927,13 +14927,13 @@
         <v>24</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F487" s="2">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="G487" s="2">
-        <v>80903</v>
+        <v>24</v>
       </c>
       <c r="H487" s="2">
         <v>1</v>
@@ -14956,13 +14956,13 @@
         <v>24</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F488" s="2">
-        <v>370</v>
+        <v>975</v>
       </c>
       <c r="G488" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H488" s="2">
         <v>370</v>
@@ -14985,13 +14985,13 @@
         <v>24</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F489" s="2">
-        <v>174</v>
+        <v>3623</v>
       </c>
       <c r="G489" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H489" s="2">
         <v>174</v>
@@ -15017,10 +15017,10 @@
         <v>7</v>
       </c>
       <c r="F490" s="2">
-        <v>565</v>
+        <v>4952</v>
       </c>
       <c r="G490" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H490" s="2">
         <v>565</v>
@@ -15046,10 +15046,10 @@
         <v>7</v>
       </c>
       <c r="F491" s="2">
-        <v>975</v>
+        <v>8618</v>
       </c>
       <c r="G491" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H491" s="2">
         <v>975</v>
@@ -15075,7 +15075,7 @@
         <v>7</v>
       </c>
       <c r="F492" s="2">
-        <v>3623</v>
+        <v>8698</v>
       </c>
       <c r="G492" s="2">
         <v>12</v>
@@ -15101,13 +15101,13 @@
         <v>24</v>
       </c>
       <c r="E493" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F493" s="2">
+        <v>158</v>
+      </c>
+      <c r="G493" s="2">
         <v>7</v>
-      </c>
-      <c r="F493" s="2">
-        <v>4952</v>
-      </c>
-      <c r="G493" s="2">
-        <v>14</v>
       </c>
       <c r="H493" s="2">
         <v>4952</v>
@@ -15130,13 +15130,13 @@
         <v>24</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F494" s="2">
-        <v>8618</v>
+        <v>1</v>
       </c>
       <c r="G494" s="2">
-        <v>9</v>
+        <v>610</v>
       </c>
       <c r="H494" s="2">
         <v>8618</v>
@@ -15159,13 +15159,13 @@
         <v>24</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F495" s="2">
-        <v>8698</v>
+        <v>4677</v>
       </c>
       <c r="G495" s="2">
-        <v>12</v>
+        <v>611</v>
       </c>
       <c r="H495" s="2">
         <v>8698</v>
@@ -15188,13 +15188,13 @@
         <v>24</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F496" s="2">
-        <v>158</v>
+        <v>8694</v>
       </c>
       <c r="G496" s="2">
-        <v>7</v>
+        <v>636</v>
       </c>
       <c r="H496" s="2">
         <v>158</v>
@@ -15220,10 +15220,10 @@
         <v>8</v>
       </c>
       <c r="F497" s="2">
+        <v>9190</v>
+      </c>
+      <c r="G497" s="2">
         <v>1</v>
-      </c>
-      <c r="G497" s="2">
-        <v>610</v>
       </c>
       <c r="H497" s="2">
         <v>1</v>
@@ -15249,10 +15249,10 @@
         <v>8</v>
       </c>
       <c r="F498" s="2">
-        <v>4677</v>
+        <v>9192</v>
       </c>
       <c r="G498" s="2">
-        <v>611</v>
+        <v>1</v>
       </c>
       <c r="H498" s="2">
         <v>4677</v>
@@ -15278,10 +15278,10 @@
         <v>8</v>
       </c>
       <c r="F499" s="2">
-        <v>8694</v>
+        <v>9194</v>
       </c>
       <c r="G499" s="2">
-        <v>636</v>
+        <v>1</v>
       </c>
       <c r="H499" s="2">
         <v>8694</v>
@@ -15304,13 +15304,13 @@
         <v>24</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F500" s="2">
-        <v>9190</v>
+        <v>1</v>
       </c>
       <c r="G500" s="2">
-        <v>1</v>
+        <v>610</v>
       </c>
       <c r="H500" s="2">
         <v>9190</v>
@@ -15333,13 +15333,13 @@
         <v>24</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F501" s="2">
-        <v>9192</v>
+        <v>2460</v>
       </c>
       <c r="G501" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H501" s="2">
         <v>9192</v>
@@ -15362,13 +15362,13 @@
         <v>24</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F502" s="2">
-        <v>9194</v>
+        <v>3291</v>
       </c>
       <c r="G502" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H502" s="2">
         <v>9194</v>
@@ -15391,13 +15391,13 @@
         <v>24</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="F503" s="2">
-        <v>1</v>
+        <v>7074</v>
       </c>
       <c r="G503" s="2">
-        <v>610</v>
+        <v>18</v>
       </c>
       <c r="H503" s="2">
         <v>1</v>
@@ -15423,10 +15423,10 @@
         <v>48</v>
       </c>
       <c r="F504" s="2">
-        <v>2460</v>
+        <v>7382</v>
       </c>
       <c r="G504" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H504" s="2">
         <v>2460</v>
@@ -15449,13 +15449,13 @@
         <v>24</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F505" s="2">
-        <v>3291</v>
+        <v>2460</v>
       </c>
       <c r="G505" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H505" s="2">
         <v>3291</v>
@@ -15478,13 +15478,13 @@
         <v>24</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F506" s="2">
-        <v>7074</v>
+        <v>3291</v>
       </c>
       <c r="G506" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H506" s="2">
         <v>7074</v>
@@ -15507,13 +15507,13 @@
         <v>24</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F507" s="2">
-        <v>7382</v>
+        <v>1948</v>
       </c>
       <c r="G507" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H507" s="2">
         <v>7382</v>
@@ -15536,13 +15536,13 @@
         <v>24</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F508" s="2">
-        <v>2460</v>
+        <v>84</v>
       </c>
       <c r="G508" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H508" s="2">
         <v>2460</v>
@@ -15565,13 +15565,13 @@
         <v>24</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F509" s="2">
-        <v>3291</v>
+        <v>79</v>
       </c>
       <c r="G509" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H509" s="2">
         <v>3291</v>
@@ -15594,13 +15594,13 @@
         <v>24</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F510" s="2">
-        <v>1948</v>
+        <v>387</v>
       </c>
       <c r="G510" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H510" s="2">
         <v>1948</v>
@@ -15623,13 +15623,13 @@
         <v>24</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F511" s="2">
-        <v>84</v>
+        <v>2363</v>
       </c>
       <c r="G511" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H511" s="2">
         <v>84</v>
@@ -15652,13 +15652,13 @@
         <v>24</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F512" s="2">
-        <v>79</v>
+        <v>3187</v>
       </c>
       <c r="G512" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H512" s="2">
         <v>79</v>
@@ -15681,13 +15681,13 @@
         <v>24</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F513" s="2">
-        <v>387</v>
+        <v>6511</v>
       </c>
       <c r="G513" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H513" s="2">
         <v>387</v>
@@ -15713,10 +15713,10 @@
         <v>61</v>
       </c>
       <c r="F514" s="2">
-        <v>2363</v>
+        <v>6776</v>
       </c>
       <c r="G514" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H514" s="2">
         <v>2363</v>
@@ -15739,10 +15739,10 @@
         <v>24</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F515" s="2">
-        <v>3187</v>
+        <v>255</v>
       </c>
       <c r="G515" s="2">
         <v>11</v>
@@ -15768,13 +15768,13 @@
         <v>24</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F516" s="2">
-        <v>6511</v>
+        <v>1</v>
       </c>
       <c r="G516" s="2">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="H516" s="2">
         <v>6511</v>
@@ -15797,13 +15797,13 @@
         <v>24</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F517" s="2">
-        <v>6776</v>
+        <v>8405</v>
       </c>
       <c r="G517" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H517" s="2">
         <v>6776</v>
@@ -15826,13 +15826,13 @@
         <v>24</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F518" s="2">
-        <v>255</v>
+        <v>10860</v>
       </c>
       <c r="G518" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H518" s="2">
         <v>255</v>
@@ -15858,10 +15858,10 @@
         <v>12</v>
       </c>
       <c r="F519" s="2">
-        <v>1</v>
+        <v>12751</v>
       </c>
       <c r="G519" s="2">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="H519" s="2">
         <v>1</v>
@@ -15887,10 +15887,10 @@
         <v>12</v>
       </c>
       <c r="F520" s="2">
-        <v>8405</v>
+        <v>12761</v>
       </c>
       <c r="G520" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H520" s="2">
         <v>8405</v>
@@ -15916,10 +15916,10 @@
         <v>12</v>
       </c>
       <c r="F521" s="2">
-        <v>10860</v>
+        <v>12771</v>
       </c>
       <c r="G521" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H521" s="2">
         <v>10860</v>
@@ -15945,7 +15945,7 @@
         <v>12</v>
       </c>
       <c r="F522" s="2">
-        <v>12751</v>
+        <v>12781</v>
       </c>
       <c r="G522" s="2">
         <v>7</v>
@@ -15974,7 +15974,7 @@
         <v>12</v>
       </c>
       <c r="F523" s="2">
-        <v>12761</v>
+        <v>12792</v>
       </c>
       <c r="G523" s="2">
         <v>7</v>
@@ -16003,10 +16003,10 @@
         <v>12</v>
       </c>
       <c r="F524" s="2">
-        <v>12771</v>
+        <v>15613</v>
       </c>
       <c r="G524" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H524" s="2">
         <v>12771</v>
@@ -16029,13 +16029,13 @@
         <v>24</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F525" s="2">
-        <v>12781</v>
+        <v>1</v>
       </c>
       <c r="G525" s="2">
-        <v>7</v>
+        <v>650</v>
       </c>
       <c r="H525" s="2">
         <v>12781</v>
@@ -16058,13 +16058,13 @@
         <v>24</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F526" s="2">
-        <v>12792</v>
+        <v>1</v>
       </c>
       <c r="G526" s="2">
-        <v>7</v>
+        <v>650</v>
       </c>
       <c r="H526" s="2">
         <v>12792</v>
@@ -16087,13 +16087,13 @@
         <v>24</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F527" s="2">
-        <v>15613</v>
+        <v>1</v>
       </c>
       <c r="G527" s="2">
-        <v>18</v>
+        <v>650</v>
       </c>
       <c r="H527" s="2">
         <v>15613</v>
@@ -16116,13 +16116,13 @@
         <v>24</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F528" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="G528" s="2">
-        <v>650</v>
+        <v>38</v>
       </c>
       <c r="H528" s="2">
         <v>1</v>
@@ -16145,13 +16145,13 @@
         <v>24</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F529" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G529" s="2">
-        <v>650</v>
+        <v>14</v>
       </c>
       <c r="H529" s="2">
         <v>1</v>
@@ -16174,13 +16174,13 @@
         <v>24</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F530" s="2">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="G530" s="2">
-        <v>650</v>
+        <v>16</v>
       </c>
       <c r="H530" s="2">
         <v>1</v>
@@ -16203,13 +16203,13 @@
         <v>24</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F531" s="2">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="G531" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H531" s="2">
         <v>59</v>
@@ -16232,13 +16232,13 @@
         <v>24</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F532" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="G532" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H532" s="2">
         <v>128</v>
@@ -16261,13 +16261,13 @@
         <v>24</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F533" s="2">
-        <v>387</v>
+        <v>157</v>
       </c>
       <c r="G533" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H533" s="2">
         <v>387</v>
@@ -16290,10 +16290,10 @@
         <v>24</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F534" s="2">
-        <v>387</v>
+        <v>1788</v>
       </c>
       <c r="G534" s="2">
         <v>16</v>
@@ -16319,13 +16319,13 @@
         <v>24</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F535" s="2">
-        <v>383</v>
+        <v>1948</v>
       </c>
       <c r="G535" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H535" s="2">
         <v>383</v>
@@ -16348,13 +16348,13 @@
         <v>24</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F536" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="G536" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H536" s="2">
         <v>157</v>
@@ -16377,13 +16377,13 @@
         <v>24</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F537" s="2">
-        <v>1788</v>
+        <v>131</v>
       </c>
       <c r="G537" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H537" s="2">
         <v>1788</v>
@@ -16406,13 +16406,13 @@
         <v>24</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F538" s="2">
-        <v>1948</v>
+        <v>135</v>
       </c>
       <c r="G538" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H538" s="2">
         <v>1948</v>
@@ -16435,10 +16435,10 @@
         <v>24</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F539" s="2">
-        <v>76</v>
+        <v>706</v>
       </c>
       <c r="G539" s="2">
         <v>38</v>
@@ -16464,13 +16464,13 @@
         <v>24</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F540" s="2">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="G540" s="2">
-        <v>38</v>
+        <v>14728</v>
       </c>
       <c r="H540" s="2">
         <v>131</v>
@@ -16493,13 +16493,13 @@
         <v>24</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F541" s="2">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="G541" s="2">
-        <v>38</v>
+        <v>11382</v>
       </c>
       <c r="H541" s="2">
         <v>135</v>
@@ -16522,10 +16522,10 @@
         <v>24</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F542" s="2">
-        <v>706</v>
+        <v>76</v>
       </c>
       <c r="G542" s="2">
         <v>38</v>
@@ -16551,13 +16551,13 @@
         <v>24</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F543" s="2">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G543" s="2">
-        <v>14728</v>
+        <v>38</v>
       </c>
       <c r="H543" s="2">
         <v>2</v>
@@ -16580,13 +16580,13 @@
         <v>24</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F544" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G544" s="2">
-        <v>11382</v>
+        <v>14728</v>
       </c>
       <c r="H544" s="2">
         <v>3</v>
@@ -16609,13 +16609,13 @@
         <v>24</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F545" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G545" s="2">
-        <v>38</v>
+        <v>11382</v>
       </c>
       <c r="H545" s="2">
         <v>76</v>
@@ -16638,13 +16638,13 @@
         <v>24</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F546" s="2">
-        <v>131</v>
+        <v>992</v>
       </c>
       <c r="G546" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H546" s="2">
         <v>131</v>
@@ -16667,13 +16667,13 @@
         <v>24</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F547" s="2">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G547" s="2">
-        <v>14728</v>
+        <v>12</v>
       </c>
       <c r="H547" s="2">
         <v>2</v>
@@ -16696,13 +16696,13 @@
         <v>24</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F548" s="2">
-        <v>3</v>
+        <v>6529</v>
       </c>
       <c r="G548" s="2">
-        <v>11382</v>
+        <v>7</v>
       </c>
       <c r="H548" s="2">
         <v>3</v>
@@ -16725,13 +16725,13 @@
         <v>24</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="F549" s="2">
-        <v>992</v>
+        <v>30270</v>
       </c>
       <c r="G549" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H549" s="2">
         <v>992</v>
@@ -16757,10 +16757,10 @@
         <v>21</v>
       </c>
       <c r="F550" s="2">
-        <v>57</v>
+        <v>32839</v>
       </c>
       <c r="G550" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H550" s="2">
         <v>57</v>
@@ -16783,13 +16783,13 @@
         <v>24</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F551" s="2">
-        <v>6529</v>
+        <v>147</v>
       </c>
       <c r="G551" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H551" s="2">
         <v>6529</v>
@@ -16812,13 +16812,13 @@
         <v>24</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F552" s="2">
-        <v>30270</v>
+        <v>873</v>
       </c>
       <c r="G552" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H552" s="2">
         <v>30270</v>
@@ -16841,13 +16841,13 @@
         <v>24</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F553" s="2">
-        <v>32839</v>
+        <v>31</v>
       </c>
       <c r="G553" s="2">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="H553" s="2">
         <v>32839</v>
@@ -16869,14 +16869,14 @@
       <c r="D554" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E554" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F554" s="2">
-        <v>147</v>
-      </c>
-      <c r="G554" s="2">
-        <v>38</v>
+      <c r="E554" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F554" s="1">
+        <v>222</v>
+      </c>
+      <c r="G554" s="1">
+        <v>15</v>
       </c>
       <c r="H554" s="2">
         <v>147</v>
@@ -16899,13 +16899,13 @@
         <v>24</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F555" s="2">
-        <v>873</v>
+        <v>288</v>
       </c>
       <c r="G555" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H555" s="2">
         <v>873</v>
@@ -16928,13 +16928,13 @@
         <v>24</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F556" s="2">
-        <v>31</v>
+        <v>1424</v>
       </c>
       <c r="G556" s="2">
-        <v>377</v>
+        <v>25</v>
       </c>
       <c r="H556" s="2">
         <v>31</v>
@@ -16956,14 +16956,14 @@
       <c r="D557" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E557" s="1" t="s">
+      <c r="E557" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F557" s="1">
-        <v>222</v>
-      </c>
-      <c r="G557" s="1">
-        <v>15</v>
+      <c r="F557" s="2">
+        <v>1782</v>
+      </c>
+      <c r="G557" s="2">
+        <v>58</v>
       </c>
       <c r="H557" s="1">
         <v>222</v>
@@ -16989,10 +16989,10 @@
         <v>28</v>
       </c>
       <c r="F558" s="2">
-        <v>288</v>
+        <v>1906</v>
       </c>
       <c r="G558" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H558" s="2">
         <v>288</v>
@@ -17015,13 +17015,13 @@
         <v>3</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F559" s="2">
-        <v>1424</v>
+        <v>44</v>
       </c>
       <c r="G559" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H559" s="2">
         <v>1424</v>
@@ -17044,13 +17044,13 @@
         <v>3</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F560" s="2">
-        <v>1782</v>
+        <v>159</v>
       </c>
       <c r="G560" s="2">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H560" s="2">
         <v>1782</v>
@@ -17073,13 +17073,13 @@
         <v>3</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F561" s="2">
-        <v>1906</v>
+        <v>225</v>
       </c>
       <c r="G561" s="2">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H561" s="2">
         <v>1906</v>
@@ -17102,13 +17102,13 @@
         <v>3</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F562" s="2">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G562" s="2">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H562" s="2">
         <v>44</v>
@@ -17131,13 +17131,13 @@
         <v>3</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F563" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G563" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H563" s="2">
         <v>159</v>
@@ -17160,13 +17160,13 @@
         <v>3</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="F564" s="2">
-        <v>225</v>
+        <v>11293</v>
       </c>
       <c r="G564" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H564" s="2">
         <v>225</v>
@@ -17189,13 +17189,13 @@
         <v>3</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="F565" s="2">
-        <v>28</v>
+        <v>11377</v>
       </c>
       <c r="G565" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H565" s="2">
         <v>28</v>
@@ -17218,13 +17218,13 @@
         <v>3</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="F566" s="2">
-        <v>162</v>
+        <v>11603</v>
       </c>
       <c r="G566" s="2">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H566" s="2">
         <v>162</v>
@@ -17250,10 +17250,10 @@
         <v>12</v>
       </c>
       <c r="F567" s="2">
-        <v>11293</v>
+        <v>11661</v>
       </c>
       <c r="G567" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H567" s="2">
         <v>11293</v>
@@ -17279,10 +17279,10 @@
         <v>12</v>
       </c>
       <c r="F568" s="2">
-        <v>11377</v>
+        <v>11737</v>
       </c>
       <c r="G568" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H568" s="2">
         <v>11377</v>
@@ -17308,7 +17308,7 @@
         <v>12</v>
       </c>
       <c r="F569" s="2">
-        <v>11603</v>
+        <v>12088</v>
       </c>
       <c r="G569" s="2">
         <v>41</v>
@@ -17337,10 +17337,10 @@
         <v>12</v>
       </c>
       <c r="F570" s="2">
-        <v>11661</v>
+        <v>12095</v>
       </c>
       <c r="G570" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H570" s="2">
         <v>11661</v>
@@ -17366,10 +17366,10 @@
         <v>12</v>
       </c>
       <c r="F571" s="2">
-        <v>11737</v>
+        <v>12185</v>
       </c>
       <c r="G571" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H571" s="2">
         <v>11737</v>
@@ -17395,10 +17395,10 @@
         <v>12</v>
       </c>
       <c r="F572" s="2">
-        <v>12088</v>
+        <v>12190</v>
       </c>
       <c r="G572" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H572" s="2">
         <v>12088</v>
@@ -17424,10 +17424,10 @@
         <v>12</v>
       </c>
       <c r="F573" s="2">
-        <v>12095</v>
+        <v>12196</v>
       </c>
       <c r="G573" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H573" s="2">
         <v>12095</v>
@@ -17453,10 +17453,10 @@
         <v>12</v>
       </c>
       <c r="F574" s="2">
-        <v>12185</v>
+        <v>12398</v>
       </c>
       <c r="G574" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H574" s="2">
         <v>12185</v>
@@ -17479,13 +17479,13 @@
         <v>3</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F575" s="2">
-        <v>12190</v>
+        <v>140</v>
       </c>
       <c r="G575" s="2">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H575" s="2">
         <v>12190</v>
@@ -17508,13 +17508,13 @@
         <v>3</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F576" s="2">
-        <v>12196</v>
+        <v>272</v>
       </c>
       <c r="G576" s="2">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H576" s="2">
         <v>12196</v>
@@ -17537,13 +17537,13 @@
         <v>3</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F577" s="2">
-        <v>12398</v>
+        <v>321</v>
       </c>
       <c r="G577" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H577" s="2">
         <v>12398</v>
@@ -17569,10 +17569,10 @@
         <v>21</v>
       </c>
       <c r="F578" s="2">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="G578" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H578" s="2">
         <v>140</v>
@@ -17598,10 +17598,10 @@
         <v>21</v>
       </c>
       <c r="F579" s="2">
-        <v>272</v>
+        <v>668</v>
       </c>
       <c r="G579" s="2">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H579" s="2">
         <v>272</v>
@@ -17627,10 +17627,10 @@
         <v>21</v>
       </c>
       <c r="F580" s="2">
-        <v>321</v>
+        <v>1237</v>
       </c>
       <c r="G580" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H580" s="2">
         <v>321</v>
@@ -17656,10 +17656,10 @@
         <v>21</v>
       </c>
       <c r="F581" s="2">
-        <v>325</v>
+        <v>1344</v>
       </c>
       <c r="G581" s="2">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H581" s="2">
         <v>325</v>
@@ -17685,10 +17685,10 @@
         <v>21</v>
       </c>
       <c r="F582" s="2">
-        <v>668</v>
+        <v>1346</v>
       </c>
       <c r="G582" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H582" s="2">
         <v>668</v>
@@ -17714,10 +17714,10 @@
         <v>21</v>
       </c>
       <c r="F583" s="2">
-        <v>1237</v>
+        <v>1349</v>
       </c>
       <c r="G583" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H583" s="2">
         <v>1237</v>
@@ -17743,7 +17743,7 @@
         <v>21</v>
       </c>
       <c r="F584" s="2">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="G584" s="2">
         <v>91</v>
@@ -17772,7 +17772,7 @@
         <v>21</v>
       </c>
       <c r="F585" s="2">
-        <v>1346</v>
+        <v>1370</v>
       </c>
       <c r="G585" s="2">
         <v>20</v>
@@ -17801,10 +17801,10 @@
         <v>21</v>
       </c>
       <c r="F586" s="2">
-        <v>1349</v>
+        <v>1375</v>
       </c>
       <c r="G586" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H586" s="2">
         <v>1349</v>
@@ -17830,10 +17830,10 @@
         <v>21</v>
       </c>
       <c r="F587" s="2">
-        <v>1368</v>
+        <v>1378</v>
       </c>
       <c r="G587" s="2">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="H587" s="2">
         <v>1368</v>
@@ -17859,10 +17859,10 @@
         <v>21</v>
       </c>
       <c r="F588" s="2">
-        <v>1370</v>
+        <v>1431</v>
       </c>
       <c r="G588" s="2">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H588" s="2">
         <v>1370</v>
@@ -17888,10 +17888,10 @@
         <v>21</v>
       </c>
       <c r="F589" s="2">
-        <v>1375</v>
+        <v>1502</v>
       </c>
       <c r="G589" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H589" s="2">
         <v>1375</v>
@@ -17917,10 +17917,10 @@
         <v>21</v>
       </c>
       <c r="F590" s="2">
-        <v>1378</v>
+        <v>1725</v>
       </c>
       <c r="G590" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H590" s="2">
         <v>1378</v>
@@ -17946,10 +17946,10 @@
         <v>21</v>
       </c>
       <c r="F591" s="2">
-        <v>1431</v>
+        <v>1786</v>
       </c>
       <c r="G591" s="2">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H591" s="2">
         <v>1431</v>
@@ -17975,10 +17975,10 @@
         <v>21</v>
       </c>
       <c r="F592" s="2">
-        <v>1502</v>
+        <v>1814</v>
       </c>
       <c r="G592" s="2">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="H592" s="2">
         <v>1502</v>
@@ -18004,10 +18004,10 @@
         <v>21</v>
       </c>
       <c r="F593" s="2">
-        <v>1725</v>
+        <v>1817</v>
       </c>
       <c r="G593" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H593" s="2">
         <v>1725</v>
@@ -18033,10 +18033,10 @@
         <v>21</v>
       </c>
       <c r="F594" s="2">
-        <v>1786</v>
+        <v>1825</v>
       </c>
       <c r="G594" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H594" s="2">
         <v>1786</v>
@@ -18062,10 +18062,10 @@
         <v>21</v>
       </c>
       <c r="F595" s="2">
-        <v>1814</v>
+        <v>2008</v>
       </c>
       <c r="G595" s="2">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="H595" s="2">
         <v>1814</v>
@@ -18091,10 +18091,10 @@
         <v>21</v>
       </c>
       <c r="F596" s="2">
-        <v>1817</v>
+        <v>2054</v>
       </c>
       <c r="G596" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H596" s="2">
         <v>1824</v>
@@ -18120,10 +18120,10 @@
         <v>21</v>
       </c>
       <c r="F597" s="2">
-        <v>1825</v>
+        <v>2142</v>
       </c>
       <c r="G597" s="2">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H597" s="2">
         <v>1825</v>
@@ -18149,10 +18149,10 @@
         <v>21</v>
       </c>
       <c r="F598" s="2">
-        <v>2008</v>
+        <v>2191</v>
       </c>
       <c r="G598" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H598" s="2">
         <v>2008</v>
@@ -18178,10 +18178,10 @@
         <v>21</v>
       </c>
       <c r="F599" s="2">
-        <v>2054</v>
+        <v>2197</v>
       </c>
       <c r="G599" s="2">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H599" s="2">
         <v>2054</v>
@@ -18207,10 +18207,10 @@
         <v>21</v>
       </c>
       <c r="F600" s="2">
-        <v>2142</v>
+        <v>2307</v>
       </c>
       <c r="G600" s="2">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="H600" s="2">
         <v>2142</v>
@@ -18236,10 +18236,10 @@
         <v>21</v>
       </c>
       <c r="F601" s="2">
-        <v>2191</v>
+        <v>2367</v>
       </c>
       <c r="G601" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H601" s="2">
         <v>2191</v>
@@ -18265,10 +18265,10 @@
         <v>21</v>
       </c>
       <c r="F602" s="2">
-        <v>2197</v>
+        <v>2454</v>
       </c>
       <c r="G602" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H602" s="2">
         <v>2197</v>
@@ -18294,10 +18294,10 @@
         <v>21</v>
       </c>
       <c r="F603" s="2">
-        <v>2307</v>
+        <v>2497</v>
       </c>
       <c r="G603" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H603" s="2">
         <v>2307</v>
@@ -18323,10 +18323,10 @@
         <v>21</v>
       </c>
       <c r="F604" s="2">
-        <v>2367</v>
+        <v>2534</v>
       </c>
       <c r="G604" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H604" s="2">
         <v>2367</v>
@@ -18352,10 +18352,10 @@
         <v>21</v>
       </c>
       <c r="F605" s="2">
-        <v>2454</v>
+        <v>2633</v>
       </c>
       <c r="G605" s="2">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H605" s="2">
         <v>2454</v>
@@ -18381,10 +18381,10 @@
         <v>21</v>
       </c>
       <c r="F606" s="2">
-        <v>2497</v>
+        <v>2654</v>
       </c>
       <c r="G606" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H606" s="2">
         <v>2497</v>
@@ -18410,10 +18410,10 @@
         <v>21</v>
       </c>
       <c r="F607" s="2">
-        <v>2534</v>
+        <v>2676</v>
       </c>
       <c r="G607" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H607" s="2">
         <v>2534</v>
@@ -18439,10 +18439,10 @@
         <v>21</v>
       </c>
       <c r="F608" s="2">
-        <v>2633</v>
+        <v>2702</v>
       </c>
       <c r="G608" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H608" s="2">
         <v>2633</v>
@@ -18468,10 +18468,10 @@
         <v>21</v>
       </c>
       <c r="F609" s="2">
-        <v>2654</v>
+        <v>2730</v>
       </c>
       <c r="G609" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H609" s="2">
         <v>2654</v>
@@ -18497,10 +18497,10 @@
         <v>21</v>
       </c>
       <c r="F610" s="2">
-        <v>2676</v>
+        <v>2784</v>
       </c>
       <c r="G610" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H610" s="2">
         <v>2676</v>
@@ -18526,10 +18526,10 @@
         <v>21</v>
       </c>
       <c r="F611" s="2">
-        <v>2702</v>
+        <v>2816</v>
       </c>
       <c r="G611" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H611" s="2">
         <v>2702</v>
@@ -18555,10 +18555,10 @@
         <v>21</v>
       </c>
       <c r="F612" s="2">
-        <v>2730</v>
+        <v>2851</v>
       </c>
       <c r="G612" s="2">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H612" s="2">
         <v>2730</v>
@@ -18584,7 +18584,7 @@
         <v>21</v>
       </c>
       <c r="F613" s="2">
-        <v>2784</v>
+        <v>2860</v>
       </c>
       <c r="G613" s="2">
         <v>16</v>
@@ -18613,7 +18613,7 @@
         <v>21</v>
       </c>
       <c r="F614" s="2">
-        <v>2816</v>
+        <v>2972</v>
       </c>
       <c r="G614" s="2">
         <v>16</v>
@@ -18642,10 +18642,10 @@
         <v>21</v>
       </c>
       <c r="F615" s="2">
-        <v>2851</v>
+        <v>3560</v>
       </c>
       <c r="G615" s="2">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H615" s="2">
         <v>2851</v>
@@ -18671,10 +18671,10 @@
         <v>21</v>
       </c>
       <c r="F616" s="2">
-        <v>2860</v>
+        <v>3573</v>
       </c>
       <c r="G616" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H616" s="2">
         <v>2860</v>
@@ -18700,10 +18700,10 @@
         <v>21</v>
       </c>
       <c r="F617" s="2">
-        <v>2972</v>
+        <v>3681</v>
       </c>
       <c r="G617" s="2">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="H617" s="2">
         <v>2972</v>
@@ -18729,10 +18729,10 @@
         <v>21</v>
       </c>
       <c r="F618" s="2">
-        <v>3560</v>
+        <v>3696</v>
       </c>
       <c r="G618" s="2">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H618" s="2">
         <v>3560</v>
@@ -18758,10 +18758,10 @@
         <v>21</v>
       </c>
       <c r="F619" s="2">
-        <v>3573</v>
+        <v>3760</v>
       </c>
       <c r="G619" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="H619" s="2">
         <v>3911</v>
@@ -18787,10 +18787,10 @@
         <v>21</v>
       </c>
       <c r="F620" s="2">
-        <v>3681</v>
+        <v>3855</v>
       </c>
       <c r="G620" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="H620" s="2">
         <v>3681</v>
@@ -18816,10 +18816,10 @@
         <v>21</v>
       </c>
       <c r="F621" s="2">
-        <v>3696</v>
+        <v>4144</v>
       </c>
       <c r="G621" s="2">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H621" s="2">
         <v>3696</v>
@@ -18845,10 +18845,10 @@
         <v>21</v>
       </c>
       <c r="F622" s="2">
-        <v>3760</v>
+        <v>4165</v>
       </c>
       <c r="G622" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="H622" s="2">
         <v>3760</v>
@@ -18874,10 +18874,10 @@
         <v>21</v>
       </c>
       <c r="F623" s="2">
-        <v>3855</v>
+        <v>4182</v>
       </c>
       <c r="G623" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H623" s="2">
         <v>3855</v>
@@ -18903,10 +18903,10 @@
         <v>21</v>
       </c>
       <c r="F624" s="2">
-        <v>4144</v>
+        <v>4515</v>
       </c>
       <c r="G624" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H624" s="2">
         <v>4144</v>
@@ -18932,10 +18932,10 @@
         <v>21</v>
       </c>
       <c r="F625" s="2">
-        <v>4165</v>
+        <v>4523</v>
       </c>
       <c r="G625" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H625" s="2">
         <v>4466</v>
@@ -18961,10 +18961,10 @@
         <v>21</v>
       </c>
       <c r="F626" s="2">
-        <v>4182</v>
+        <v>4524</v>
       </c>
       <c r="G626" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H626" s="2">
         <v>4182</v>
@@ -18990,10 +18990,10 @@
         <v>21</v>
       </c>
       <c r="F627" s="2">
-        <v>4515</v>
+        <v>4524</v>
       </c>
       <c r="G627" s="2">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H627" s="2">
         <v>4515</v>
@@ -19019,10 +19019,10 @@
         <v>21</v>
       </c>
       <c r="F628" s="2">
-        <v>4523</v>
+        <v>4536</v>
       </c>
       <c r="G628" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H628" s="2">
         <v>4523</v>
@@ -19048,10 +19048,10 @@
         <v>21</v>
       </c>
       <c r="F629" s="2">
-        <v>4524</v>
+        <v>4695</v>
       </c>
       <c r="G629" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H629" s="2">
         <v>4524</v>
@@ -19077,10 +19077,10 @@
         <v>21</v>
       </c>
       <c r="F630" s="2">
-        <v>4524</v>
+        <v>4717</v>
       </c>
       <c r="G630" s="2">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H630" s="2">
         <v>4524</v>
@@ -19106,10 +19106,10 @@
         <v>21</v>
       </c>
       <c r="F631" s="2">
-        <v>4536</v>
+        <v>6034</v>
       </c>
       <c r="G631" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H631" s="2">
         <v>4606</v>
@@ -19135,10 +19135,10 @@
         <v>21</v>
       </c>
       <c r="F632" s="2">
-        <v>4695</v>
+        <v>6094</v>
       </c>
       <c r="G632" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H632" s="2">
         <v>4695</v>
@@ -19164,10 +19164,10 @@
         <v>21</v>
       </c>
       <c r="F633" s="2">
-        <v>4717</v>
+        <v>6108</v>
       </c>
       <c r="G633" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H633" s="2">
         <v>4717</v>
@@ -19193,10 +19193,10 @@
         <v>21</v>
       </c>
       <c r="F634" s="2">
-        <v>6034</v>
+        <v>6652</v>
       </c>
       <c r="G634" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H634" s="2">
         <v>6034</v>
@@ -19222,10 +19222,10 @@
         <v>21</v>
       </c>
       <c r="F635" s="2">
-        <v>6094</v>
+        <v>7418</v>
       </c>
       <c r="G635" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H635" s="2">
         <v>6094</v>
@@ -19251,10 +19251,10 @@
         <v>21</v>
       </c>
       <c r="F636" s="2">
-        <v>6108</v>
+        <v>7451</v>
       </c>
       <c r="G636" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H636" s="2">
         <v>6108</v>
@@ -19280,10 +19280,10 @@
         <v>21</v>
       </c>
       <c r="F637" s="2">
-        <v>6652</v>
+        <v>8129</v>
       </c>
       <c r="G637" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H637" s="2">
         <v>6652</v>
@@ -19309,10 +19309,10 @@
         <v>21</v>
       </c>
       <c r="F638" s="2">
-        <v>7418</v>
+        <v>8132</v>
       </c>
       <c r="G638" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H638" s="2">
         <v>7418</v>
@@ -19338,10 +19338,10 @@
         <v>21</v>
       </c>
       <c r="F639" s="2">
-        <v>7451</v>
+        <v>8165</v>
       </c>
       <c r="G639" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="H639" s="2">
         <v>8069</v>
@@ -19367,10 +19367,10 @@
         <v>21</v>
       </c>
       <c r="F640" s="2">
-        <v>8129</v>
+        <v>8708</v>
       </c>
       <c r="G640" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H640" s="2">
         <v>8129</v>
@@ -19396,10 +19396,10 @@
         <v>21</v>
       </c>
       <c r="F641" s="2">
-        <v>8132</v>
+        <v>8709</v>
       </c>
       <c r="G641" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H641" s="2">
         <v>8242</v>
@@ -19425,10 +19425,10 @@
         <v>21</v>
       </c>
       <c r="F642" s="2">
-        <v>8165</v>
+        <v>8712</v>
       </c>
       <c r="G642" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H642" s="2">
         <v>8165</v>
@@ -19454,10 +19454,10 @@
         <v>21</v>
       </c>
       <c r="F643" s="2">
-        <v>8708</v>
+        <v>8712</v>
       </c>
       <c r="G643" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="H643" s="2">
         <v>8708</v>
@@ -19483,10 +19483,10 @@
         <v>21</v>
       </c>
       <c r="F644" s="2">
-        <v>8709</v>
+        <v>9798</v>
       </c>
       <c r="G644" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H644" s="2">
         <v>8709</v>
@@ -19512,10 +19512,10 @@
         <v>21</v>
       </c>
       <c r="F645" s="2">
-        <v>8712</v>
+        <v>9807</v>
       </c>
       <c r="G645" s="2">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H645" s="2">
         <v>8712</v>
@@ -19541,10 +19541,10 @@
         <v>21</v>
       </c>
       <c r="F646" s="2">
-        <v>8712</v>
+        <v>9956</v>
       </c>
       <c r="G646" s="2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="H646" s="2">
         <v>8712</v>
@@ -19570,10 +19570,10 @@
         <v>21</v>
       </c>
       <c r="F647" s="2">
-        <v>9798</v>
+        <v>9975</v>
       </c>
       <c r="G647" s="2">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H647" s="2">
         <v>9798</v>
@@ -19599,10 +19599,10 @@
         <v>21</v>
       </c>
       <c r="F648" s="2">
-        <v>9807</v>
+        <v>9992</v>
       </c>
       <c r="G648" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H648" s="2">
         <v>9807</v>
@@ -19628,10 +19628,10 @@
         <v>21</v>
       </c>
       <c r="F649" s="2">
-        <v>9956</v>
+        <v>10026</v>
       </c>
       <c r="G649" s="2">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H649" s="2">
         <v>9956</v>
@@ -19657,7 +19657,7 @@
         <v>21</v>
       </c>
       <c r="F650" s="2">
-        <v>9975</v>
+        <v>10052</v>
       </c>
       <c r="G650" s="2">
         <v>59</v>
@@ -19686,10 +19686,10 @@
         <v>21</v>
       </c>
       <c r="F651" s="2">
-        <v>9992</v>
+        <v>12208</v>
       </c>
       <c r="G651" s="2">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H651" s="2">
         <v>9992</v>
@@ -19715,10 +19715,10 @@
         <v>21</v>
       </c>
       <c r="F652" s="2">
-        <v>10026</v>
+        <v>12693</v>
       </c>
       <c r="G652" s="2">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H652" s="2">
         <v>10026</v>
@@ -19744,10 +19744,10 @@
         <v>21</v>
       </c>
       <c r="F653" s="2">
-        <v>10052</v>
+        <v>13172</v>
       </c>
       <c r="G653" s="2">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="H653" s="2">
         <v>10052</v>
@@ -19773,10 +19773,10 @@
         <v>21</v>
       </c>
       <c r="F654" s="2">
-        <v>12208</v>
+        <v>13208</v>
       </c>
       <c r="G654" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H654" s="2">
         <v>12208</v>
@@ -19802,10 +19802,10 @@
         <v>21</v>
       </c>
       <c r="F655" s="2">
-        <v>12693</v>
+        <v>13221</v>
       </c>
       <c r="G655" s="2">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H655" s="2">
         <v>12693</v>
@@ -19831,10 +19831,10 @@
         <v>21</v>
       </c>
       <c r="F656" s="2">
-        <v>13172</v>
+        <v>13661</v>
       </c>
       <c r="G656" s="2">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H656" s="2">
         <v>13172</v>
@@ -19860,10 +19860,10 @@
         <v>21</v>
       </c>
       <c r="F657" s="2">
-        <v>13208</v>
+        <v>13948</v>
       </c>
       <c r="G657" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="H657" s="2">
         <v>13965</v>
@@ -19889,10 +19889,10 @@
         <v>21</v>
       </c>
       <c r="F658" s="2">
-        <v>13221</v>
+        <v>14014</v>
       </c>
       <c r="G658" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H658" s="2">
         <v>13221</v>
@@ -19918,10 +19918,10 @@
         <v>21</v>
       </c>
       <c r="F659" s="2">
-        <v>13661</v>
+        <v>14126</v>
       </c>
       <c r="G659" s="2">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="H659" s="2">
         <v>13661</v>
@@ -19947,10 +19947,10 @@
         <v>21</v>
       </c>
       <c r="F660" s="2">
-        <v>13948</v>
+        <v>14134</v>
       </c>
       <c r="G660" s="2">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="H660" s="2">
         <v>13948</v>
@@ -19976,10 +19976,10 @@
         <v>21</v>
       </c>
       <c r="F661" s="2">
-        <v>14014</v>
+        <v>14136</v>
       </c>
       <c r="G661" s="2">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H661" s="2">
         <v>14014</v>
@@ -20005,10 +20005,10 @@
         <v>21</v>
       </c>
       <c r="F662" s="2">
-        <v>14126</v>
+        <v>14136</v>
       </c>
       <c r="G662" s="2">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="H662" s="2">
         <v>14126</v>
@@ -20034,10 +20034,10 @@
         <v>21</v>
       </c>
       <c r="F663" s="2">
-        <v>14134</v>
+        <v>14151</v>
       </c>
       <c r="G663" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H663" s="2">
         <v>14134</v>
@@ -20063,10 +20063,10 @@
         <v>21</v>
       </c>
       <c r="F664" s="2">
-        <v>14136</v>
+        <v>14381</v>
       </c>
       <c r="G664" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H664" s="2">
         <v>14136</v>
@@ -20092,10 +20092,10 @@
         <v>21</v>
       </c>
       <c r="F665" s="2">
-        <v>14136</v>
+        <v>14424</v>
       </c>
       <c r="G665" s="2">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="H665" s="2">
         <v>14136</v>
@@ -20121,10 +20121,10 @@
         <v>21</v>
       </c>
       <c r="F666" s="2">
-        <v>14151</v>
+        <v>15070</v>
       </c>
       <c r="G666" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H666" s="2">
         <v>14322</v>
@@ -20150,10 +20150,10 @@
         <v>21</v>
       </c>
       <c r="F667" s="2">
-        <v>14381</v>
+        <v>15083</v>
       </c>
       <c r="G667" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H667" s="2">
         <v>14381</v>
@@ -20179,10 +20179,10 @@
         <v>21</v>
       </c>
       <c r="F668" s="2">
-        <v>14424</v>
+        <v>15093</v>
       </c>
       <c r="G668" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H668" s="2">
         <v>15163</v>
@@ -20208,10 +20208,10 @@
         <v>21</v>
       </c>
       <c r="F669" s="2">
-        <v>15070</v>
+        <v>15098</v>
       </c>
       <c r="G669" s="2">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H669" s="2">
         <v>15070</v>
@@ -20237,10 +20237,10 @@
         <v>21</v>
       </c>
       <c r="F670" s="2">
-        <v>15083</v>
+        <v>15101</v>
       </c>
       <c r="G670" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H670" s="2">
         <v>15083</v>
@@ -20266,10 +20266,10 @@
         <v>21</v>
       </c>
       <c r="F671" s="2">
-        <v>15093</v>
+        <v>15213</v>
       </c>
       <c r="G671" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H671" s="2">
         <v>15093</v>
@@ -20295,10 +20295,10 @@
         <v>21</v>
       </c>
       <c r="F672" s="2">
-        <v>15098</v>
+        <v>15221</v>
       </c>
       <c r="G672" s="2">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="H672" s="2">
         <v>15098</v>
@@ -20324,10 +20324,10 @@
         <v>21</v>
       </c>
       <c r="F673" s="2">
-        <v>15101</v>
+        <v>15222</v>
       </c>
       <c r="G673" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H673" s="2">
         <v>15101</v>
@@ -20353,10 +20353,10 @@
         <v>21</v>
       </c>
       <c r="F674" s="2">
-        <v>15213</v>
+        <v>15222</v>
       </c>
       <c r="G674" s="2">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="H674" s="2">
         <v>15213</v>
@@ -20382,10 +20382,10 @@
         <v>21</v>
       </c>
       <c r="F675" s="2">
-        <v>15221</v>
+        <v>15236</v>
       </c>
       <c r="G675" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H675" s="2">
         <v>15221</v>
@@ -20411,10 +20411,10 @@
         <v>21</v>
       </c>
       <c r="F676" s="2">
-        <v>15222</v>
+        <v>15414</v>
       </c>
       <c r="G676" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H676" s="2">
         <v>15222</v>
@@ -20440,10 +20440,10 @@
         <v>21</v>
       </c>
       <c r="F677" s="2">
-        <v>15222</v>
+        <v>15427</v>
       </c>
       <c r="G677" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H677" s="2">
         <v>15222</v>
@@ -20469,10 +20469,10 @@
         <v>21</v>
       </c>
       <c r="F678" s="2">
-        <v>15236</v>
+        <v>16747</v>
       </c>
       <c r="G678" s="2">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="H678" s="2">
         <v>15376</v>
@@ -20498,10 +20498,10 @@
         <v>21</v>
       </c>
       <c r="F679" s="2">
-        <v>15414</v>
+        <v>17827</v>
       </c>
       <c r="G679" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H679" s="2">
         <v>15414</v>
@@ -20527,10 +20527,10 @@
         <v>21</v>
       </c>
       <c r="F680" s="2">
-        <v>15427</v>
+        <v>17839</v>
       </c>
       <c r="G680" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H680" s="2">
         <v>15539</v>
@@ -20556,10 +20556,10 @@
         <v>21</v>
       </c>
       <c r="F681" s="2">
-        <v>16747</v>
+        <v>17849</v>
       </c>
       <c r="G681" s="2">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H681" s="2">
         <v>16747</v>
@@ -20585,10 +20585,10 @@
         <v>21</v>
       </c>
       <c r="F682" s="2">
-        <v>17827</v>
+        <v>17855</v>
       </c>
       <c r="G682" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H682" s="2">
         <v>17827</v>
@@ -20614,7 +20614,7 @@
         <v>21</v>
       </c>
       <c r="F683" s="2">
-        <v>17839</v>
+        <v>17869</v>
       </c>
       <c r="G683" s="2">
         <v>18</v>
@@ -20643,7 +20643,7 @@
         <v>21</v>
       </c>
       <c r="F684" s="2">
-        <v>17849</v>
+        <v>17879</v>
       </c>
       <c r="G684" s="2">
         <v>18</v>
@@ -20672,10 +20672,10 @@
         <v>21</v>
       </c>
       <c r="F685" s="2">
-        <v>17855</v>
+        <v>18552</v>
       </c>
       <c r="G685" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H685" s="2">
         <v>17855</v>
@@ -20701,10 +20701,10 @@
         <v>21</v>
       </c>
       <c r="F686" s="2">
-        <v>17869</v>
+        <v>20973</v>
       </c>
       <c r="G686" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H686" s="2">
         <v>17869</v>
@@ -20730,10 +20730,10 @@
         <v>21</v>
       </c>
       <c r="F687" s="2">
-        <v>17879</v>
+        <v>20995</v>
       </c>
       <c r="G687" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H687" s="2">
         <v>17879</v>
@@ -20759,10 +20759,10 @@
         <v>21</v>
       </c>
       <c r="F688" s="2">
-        <v>18552</v>
+        <v>21594</v>
       </c>
       <c r="G688" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H688" s="2">
         <v>18552</v>
@@ -20788,10 +20788,10 @@
         <v>21</v>
       </c>
       <c r="F689" s="2">
-        <v>20973</v>
+        <v>22667</v>
       </c>
       <c r="G689" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H689" s="2">
         <v>20973</v>
@@ -20817,10 +20817,10 @@
         <v>21</v>
       </c>
       <c r="F690" s="2">
-        <v>20995</v>
+        <v>23398</v>
       </c>
       <c r="G690" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H690" s="2">
         <v>21111</v>
@@ -20846,10 +20846,10 @@
         <v>21</v>
       </c>
       <c r="F691" s="2">
-        <v>21594</v>
+        <v>24192</v>
       </c>
       <c r="G691" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H691" s="2">
         <v>21594</v>
@@ -20875,10 +20875,10 @@
         <v>21</v>
       </c>
       <c r="F692" s="2">
-        <v>22667</v>
+        <v>24259</v>
       </c>
       <c r="G692" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H692" s="2">
         <v>22667</v>
@@ -20904,10 +20904,10 @@
         <v>21</v>
       </c>
       <c r="F693" s="2">
-        <v>23398</v>
+        <v>24639</v>
       </c>
       <c r="G693" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H693" s="2">
         <v>23398</v>
@@ -20933,10 +20933,10 @@
         <v>21</v>
       </c>
       <c r="F694" s="2">
-        <v>24192</v>
+        <v>25646</v>
       </c>
       <c r="G694" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H694" s="2">
         <v>24192</v>
@@ -20962,10 +20962,10 @@
         <v>21</v>
       </c>
       <c r="F695" s="2">
-        <v>24259</v>
+        <v>25660</v>
       </c>
       <c r="G695" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H695" s="2">
         <v>24259</v>
@@ -20991,10 +20991,10 @@
         <v>21</v>
       </c>
       <c r="F696" s="2">
-        <v>24639</v>
+        <v>25840</v>
       </c>
       <c r="G696" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H696" s="2">
         <v>24639</v>
@@ -21020,10 +21020,10 @@
         <v>21</v>
       </c>
       <c r="F697" s="2">
-        <v>25646</v>
+        <v>25856</v>
       </c>
       <c r="G697" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H697" s="2">
         <v>25646</v>
@@ -21049,10 +21049,10 @@
         <v>21</v>
       </c>
       <c r="F698" s="2">
-        <v>25660</v>
+        <v>25874</v>
       </c>
       <c r="G698" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H698" s="2">
         <v>25756</v>
@@ -21078,10 +21078,10 @@
         <v>21</v>
       </c>
       <c r="F699" s="2">
-        <v>25840</v>
+        <v>25913</v>
       </c>
       <c r="G699" s="2">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="H699" s="2">
         <v>25840</v>
@@ -21107,10 +21107,10 @@
         <v>21</v>
       </c>
       <c r="F700" s="2">
-        <v>25856</v>
+        <v>25960</v>
       </c>
       <c r="G700" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="H700" s="2">
         <v>26671</v>
@@ -21136,10 +21136,10 @@
         <v>21</v>
       </c>
       <c r="F701" s="2">
-        <v>25874</v>
+        <v>25974</v>
       </c>
       <c r="G701" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H701" s="2">
         <v>25874</v>
@@ -21165,10 +21165,10 @@
         <v>21</v>
       </c>
       <c r="F702" s="2">
-        <v>25913</v>
+        <v>26308</v>
       </c>
       <c r="G702" s="2">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H702" s="2">
         <v>25913</v>
@@ -21194,10 +21194,10 @@
         <v>21</v>
       </c>
       <c r="F703" s="2">
-        <v>25960</v>
+        <v>26340</v>
       </c>
       <c r="G703" s="2">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H703" s="2">
         <v>25960</v>
@@ -21223,10 +21223,10 @@
         <v>21</v>
       </c>
       <c r="F704" s="2">
-        <v>25974</v>
+        <v>26717</v>
       </c>
       <c r="G704" s="2">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H704" s="2">
         <v>25974</v>
@@ -21252,10 +21252,10 @@
         <v>21</v>
       </c>
       <c r="F705" s="2">
-        <v>26308</v>
+        <v>26736</v>
       </c>
       <c r="G705" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H705" s="2">
         <v>26308</v>
@@ -21281,10 +21281,10 @@
         <v>21</v>
       </c>
       <c r="F706" s="2">
-        <v>26340</v>
+        <v>26813</v>
       </c>
       <c r="G706" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H706" s="2">
         <v>26340</v>
@@ -21310,10 +21310,10 @@
         <v>21</v>
       </c>
       <c r="F707" s="2">
-        <v>26717</v>
+        <v>26856</v>
       </c>
       <c r="G707" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H707" s="2">
         <v>26717</v>
@@ -21339,10 +21339,10 @@
         <v>21</v>
       </c>
       <c r="F708" s="2">
-        <v>26736</v>
+        <v>26875</v>
       </c>
       <c r="G708" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H708" s="2">
         <v>27371</v>
@@ -21368,10 +21368,10 @@
         <v>21</v>
       </c>
       <c r="F709" s="2">
-        <v>26813</v>
+        <v>26926</v>
       </c>
       <c r="G709" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H709" s="2">
         <v>26813</v>
@@ -21397,10 +21397,10 @@
         <v>21</v>
       </c>
       <c r="F710" s="2">
-        <v>26856</v>
+        <v>27171</v>
       </c>
       <c r="G710" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H710" s="2">
         <v>26856</v>
@@ -21426,10 +21426,10 @@
         <v>21</v>
       </c>
       <c r="F711" s="2">
-        <v>26875</v>
+        <v>27285</v>
       </c>
       <c r="G711" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H711" s="2">
         <v>26875</v>
@@ -21455,10 +21455,10 @@
         <v>21</v>
       </c>
       <c r="F712" s="2">
-        <v>26926</v>
+        <v>27466</v>
       </c>
       <c r="G712" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H712" s="2">
         <v>26926</v>
@@ -21484,10 +21484,10 @@
         <v>21</v>
       </c>
       <c r="F713" s="2">
-        <v>27171</v>
+        <v>27469</v>
       </c>
       <c r="G713" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H713" s="2">
         <v>27171</v>
@@ -21513,10 +21513,10 @@
         <v>21</v>
       </c>
       <c r="F714" s="2">
-        <v>27285</v>
+        <v>27534</v>
       </c>
       <c r="G714" s="2">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H714" s="2">
         <v>27285</v>
@@ -21542,7 +21542,7 @@
         <v>21</v>
       </c>
       <c r="F715" s="2">
-        <v>27466</v>
+        <v>27537</v>
       </c>
       <c r="G715" s="2">
         <v>5</v>
@@ -21571,10 +21571,10 @@
         <v>21</v>
       </c>
       <c r="F716" s="2">
-        <v>27469</v>
+        <v>27538</v>
       </c>
       <c r="G716" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H716" s="2">
         <v>27523</v>
@@ -21600,10 +21600,10 @@
         <v>21</v>
       </c>
       <c r="F717" s="2">
-        <v>27534</v>
+        <v>27538</v>
       </c>
       <c r="G717" s="2">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="H717" s="2">
         <v>27534</v>
@@ -21629,10 +21629,10 @@
         <v>21</v>
       </c>
       <c r="F718" s="2">
-        <v>27537</v>
+        <v>27541</v>
       </c>
       <c r="G718" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H718" s="2">
         <v>27537</v>
@@ -21658,10 +21658,10 @@
         <v>21</v>
       </c>
       <c r="F719" s="2">
-        <v>27538</v>
+        <v>27571</v>
       </c>
       <c r="G719" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H719" s="2">
         <v>27538</v>
@@ -21687,10 +21687,10 @@
         <v>21</v>
       </c>
       <c r="F720" s="2">
-        <v>27538</v>
+        <v>27574</v>
       </c>
       <c r="G720" s="2">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H720" s="2">
         <v>27538</v>
@@ -21716,10 +21716,10 @@
         <v>21</v>
       </c>
       <c r="F721" s="2">
-        <v>27541</v>
+        <v>27602</v>
       </c>
       <c r="G721" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H721" s="2">
         <v>27560</v>
@@ -21745,10 +21745,10 @@
         <v>21</v>
       </c>
       <c r="F722" s="2">
-        <v>27571</v>
+        <v>27605</v>
       </c>
       <c r="G722" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H722" s="2">
         <v>27571</v>
@@ -21774,10 +21774,10 @@
         <v>21</v>
       </c>
       <c r="F723" s="2">
-        <v>27574</v>
+        <v>27646</v>
       </c>
       <c r="G723" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H723" s="2">
         <v>27591</v>
@@ -21803,10 +21803,10 @@
         <v>21</v>
       </c>
       <c r="F724" s="2">
-        <v>27602</v>
+        <v>27649</v>
       </c>
       <c r="G724" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H724" s="2">
         <v>27602</v>
@@ -21832,10 +21832,10 @@
         <v>21</v>
       </c>
       <c r="F725" s="2">
-        <v>27605</v>
+        <v>27715</v>
       </c>
       <c r="G725" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H725" s="2">
         <v>27635</v>
@@ -21861,10 +21861,10 @@
         <v>21</v>
       </c>
       <c r="F726" s="2">
-        <v>27646</v>
+        <v>27733</v>
       </c>
       <c r="G726" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H726" s="2">
         <v>27646</v>
@@ -21890,10 +21890,10 @@
         <v>21</v>
       </c>
       <c r="F727" s="2">
-        <v>27649</v>
+        <v>28270</v>
       </c>
       <c r="G727" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H727" s="2">
         <v>27678</v>
@@ -21919,10 +21919,10 @@
         <v>21</v>
       </c>
       <c r="F728" s="2">
-        <v>27715</v>
+        <v>28283</v>
       </c>
       <c r="G728" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H728" s="2">
         <v>27715</v>
@@ -21948,10 +21948,10 @@
         <v>21</v>
       </c>
       <c r="F729" s="2">
-        <v>27733</v>
+        <v>36696</v>
       </c>
       <c r="G729" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H729" s="2">
         <v>28233</v>
@@ -21977,7 +21977,7 @@
         <v>21</v>
       </c>
       <c r="F730" s="2">
-        <v>28270</v>
+        <v>36700</v>
       </c>
       <c r="G730" s="2">
         <v>5</v>
@@ -22006,10 +22006,10 @@
         <v>21</v>
       </c>
       <c r="F731" s="2">
-        <v>28283</v>
+        <v>36704</v>
       </c>
       <c r="G731" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H731" s="2">
         <v>28332</v>
@@ -22035,10 +22035,10 @@
         <v>21</v>
       </c>
       <c r="F732" s="2">
-        <v>34455</v>
+        <v>41411</v>
       </c>
       <c r="G732" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H732" s="2">
         <v>34455</v>
@@ -22064,10 +22064,10 @@
         <v>21</v>
       </c>
       <c r="F733" s="2">
-        <v>36696</v>
+        <v>41437</v>
       </c>
       <c r="G733" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H733" s="2">
         <v>36696</v>
@@ -22093,10 +22093,10 @@
         <v>21</v>
       </c>
       <c r="F734" s="2">
-        <v>36700</v>
+        <v>41550</v>
       </c>
       <c r="G734" s="2">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="H734" s="2">
         <v>36700</v>
@@ -22122,7 +22122,7 @@
         <v>21</v>
       </c>
       <c r="F735" s="2">
-        <v>36704</v>
+        <v>43537</v>
       </c>
       <c r="G735" s="2">
         <v>5</v>
@@ -22151,10 +22151,10 @@
         <v>21</v>
       </c>
       <c r="F736" s="2">
-        <v>41411</v>
+        <v>43550</v>
       </c>
       <c r="G736" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H736" s="2">
         <v>41411</v>
@@ -22180,10 +22180,10 @@
         <v>21</v>
       </c>
       <c r="F737" s="2">
-        <v>41437</v>
+        <v>43712</v>
       </c>
       <c r="G737" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H737" s="2">
         <v>42023</v>
@@ -22209,10 +22209,10 @@
         <v>21</v>
       </c>
       <c r="F738" s="2">
-        <v>41550</v>
+        <v>43757</v>
       </c>
       <c r="G738" s="2">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="H738" s="2">
         <v>41550</v>
@@ -22238,7 +22238,7 @@
         <v>21</v>
       </c>
       <c r="F739" s="2">
-        <v>43537</v>
+        <v>43883</v>
       </c>
       <c r="G739" s="2">
         <v>5</v>
@@ -22267,7 +22267,7 @@
         <v>21</v>
       </c>
       <c r="F740" s="2">
-        <v>43550</v>
+        <v>44027</v>
       </c>
       <c r="G740" s="2">
         <v>3</v>
@@ -22296,7 +22296,7 @@
         <v>21</v>
       </c>
       <c r="F741" s="2">
-        <v>43712</v>
+        <v>44505</v>
       </c>
       <c r="G741" s="2">
         <v>5</v>
@@ -22325,7 +22325,7 @@
         <v>21</v>
       </c>
       <c r="F742" s="2">
-        <v>43757</v>
+        <v>44557</v>
       </c>
       <c r="G742" s="2">
         <v>3</v>
@@ -22354,7 +22354,7 @@
         <v>21</v>
       </c>
       <c r="F743" s="2">
-        <v>43883</v>
+        <v>45101</v>
       </c>
       <c r="G743" s="2">
         <v>5</v>
@@ -22383,7 +22383,7 @@
         <v>21</v>
       </c>
       <c r="F744" s="2">
-        <v>44027</v>
+        <v>45120</v>
       </c>
       <c r="G744" s="2">
         <v>3</v>
@@ -22412,10 +22412,10 @@
         <v>21</v>
       </c>
       <c r="F745" s="2">
-        <v>44505</v>
+        <v>45145</v>
       </c>
       <c r="G745" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H745" s="2">
         <v>44505</v>
@@ -22441,10 +22441,10 @@
         <v>21</v>
       </c>
       <c r="F746" s="2">
-        <v>44557</v>
+        <v>45289</v>
       </c>
       <c r="G746" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H746" s="2">
         <v>45051</v>
@@ -22470,10 +22470,10 @@
         <v>21</v>
       </c>
       <c r="F747" s="2">
-        <v>45101</v>
+        <v>45389</v>
       </c>
       <c r="G747" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H747" s="2">
         <v>45101</v>
@@ -22499,10 +22499,10 @@
         <v>21</v>
       </c>
       <c r="F748" s="2">
-        <v>45120</v>
+        <v>45397</v>
       </c>
       <c r="G748" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H748" s="2">
         <v>45340</v>
@@ -22528,10 +22528,10 @@
         <v>21</v>
       </c>
       <c r="F749" s="2">
-        <v>45145</v>
+        <v>45399</v>
       </c>
       <c r="G749" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H749" s="2">
         <v>45145</v>
@@ -22557,10 +22557,10 @@
         <v>21</v>
       </c>
       <c r="F750" s="2">
-        <v>45289</v>
+        <v>45399</v>
       </c>
       <c r="G750" s="2">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H750" s="2">
         <v>45289</v>
@@ -22586,7 +22586,7 @@
         <v>21</v>
       </c>
       <c r="F751" s="2">
-        <v>45389</v>
+        <v>45413</v>
       </c>
       <c r="G751" s="2">
         <v>3</v>
@@ -22615,10 +22615,10 @@
         <v>21</v>
       </c>
       <c r="F752" s="2">
-        <v>45397</v>
+        <v>45612</v>
       </c>
       <c r="G752" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H752" s="2">
         <v>45397</v>
@@ -22644,10 +22644,10 @@
         <v>21</v>
       </c>
       <c r="F753" s="2">
-        <v>45399</v>
+        <v>45620</v>
       </c>
       <c r="G753" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H753" s="2">
         <v>45399</v>
@@ -22673,10 +22673,10 @@
         <v>21</v>
       </c>
       <c r="F754" s="2">
-        <v>45399</v>
+        <v>45622</v>
       </c>
       <c r="G754" s="2">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="H754" s="2">
         <v>45399</v>
@@ -22702,10 +22702,10 @@
         <v>21</v>
       </c>
       <c r="F755" s="2">
-        <v>45413</v>
+        <v>45622</v>
       </c>
       <c r="G755" s="2">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H755" s="2">
         <v>45486</v>
@@ -22731,7 +22731,7 @@
         <v>21</v>
       </c>
       <c r="F756" s="2">
-        <v>45612</v>
+        <v>45636</v>
       </c>
       <c r="G756" s="2">
         <v>3</v>
@@ -22760,10 +22760,10 @@
         <v>21</v>
       </c>
       <c r="F757" s="2">
-        <v>45620</v>
+        <v>45755</v>
       </c>
       <c r="G757" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H757" s="2">
         <v>45620</v>
@@ -22789,10 +22789,10 @@
         <v>21</v>
       </c>
       <c r="F758" s="2">
-        <v>45622</v>
+        <v>45765</v>
       </c>
       <c r="G758" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H758" s="2">
         <v>45622</v>
@@ -22818,10 +22818,10 @@
         <v>21</v>
       </c>
       <c r="F759" s="2">
-        <v>45622</v>
+        <v>45767</v>
       </c>
       <c r="G759" s="2">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="H759" s="2">
         <v>45622</v>
@@ -22847,10 +22847,10 @@
         <v>21</v>
       </c>
       <c r="F760" s="2">
-        <v>45636</v>
+        <v>45767</v>
       </c>
       <c r="G760" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="H760" s="2">
         <v>45706</v>
@@ -22876,7 +22876,7 @@
         <v>21</v>
       </c>
       <c r="F761" s="2">
-        <v>45755</v>
+        <v>45781</v>
       </c>
       <c r="G761" s="2">
         <v>3</v>
@@ -22905,10 +22905,10 @@
         <v>21</v>
       </c>
       <c r="F762" s="2">
-        <v>45765</v>
+        <v>45922</v>
       </c>
       <c r="G762" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H762" s="2">
         <v>45765</v>
@@ -22934,10 +22934,10 @@
         <v>21</v>
       </c>
       <c r="F763" s="2">
-        <v>45767</v>
+        <v>45930</v>
       </c>
       <c r="G763" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H763" s="2">
         <v>45767</v>
@@ -22963,10 +22963,10 @@
         <v>21</v>
       </c>
       <c r="F764" s="2">
-        <v>45767</v>
+        <v>45932</v>
       </c>
       <c r="G764" s="2">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="H764" s="2">
         <v>45767</v>
@@ -22992,10 +22992,10 @@
         <v>21</v>
       </c>
       <c r="F765" s="2">
-        <v>45781</v>
+        <v>45932</v>
       </c>
       <c r="G765" s="2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H765" s="2">
         <v>45873</v>
@@ -23021,7 +23021,7 @@
         <v>21</v>
       </c>
       <c r="F766" s="2">
-        <v>45922</v>
+        <v>45946</v>
       </c>
       <c r="G766" s="2">
         <v>3</v>
@@ -23050,10 +23050,10 @@
         <v>21</v>
       </c>
       <c r="F767" s="2">
-        <v>45930</v>
+        <v>46044</v>
       </c>
       <c r="G767" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H767" s="2">
         <v>45930</v>
@@ -23079,10 +23079,10 @@
         <v>21</v>
       </c>
       <c r="F768" s="2">
-        <v>45932</v>
+        <v>46052</v>
       </c>
       <c r="G768" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H768" s="2">
         <v>45932</v>
@@ -23108,10 +23108,10 @@
         <v>21</v>
       </c>
       <c r="F769" s="2">
-        <v>45932</v>
+        <v>46053</v>
       </c>
       <c r="G769" s="2">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H769" s="2">
         <v>45932</v>
@@ -23137,10 +23137,10 @@
         <v>21</v>
       </c>
       <c r="F770" s="2">
-        <v>45946</v>
+        <v>46053</v>
       </c>
       <c r="G770" s="2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="H770" s="2">
         <v>45995</v>
@@ -23166,7 +23166,7 @@
         <v>21</v>
       </c>
       <c r="F771" s="2">
-        <v>46044</v>
+        <v>46067</v>
       </c>
       <c r="G771" s="2">
         <v>3</v>
@@ -23195,10 +23195,10 @@
         <v>21</v>
       </c>
       <c r="F772" s="2">
-        <v>46052</v>
+        <v>46134</v>
       </c>
       <c r="G772" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H772" s="2">
         <v>46052</v>
@@ -23224,10 +23224,10 @@
         <v>21</v>
       </c>
       <c r="F773" s="2">
-        <v>46053</v>
+        <v>46142</v>
       </c>
       <c r="G773" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H773" s="2">
         <v>46053</v>
@@ -23253,10 +23253,10 @@
         <v>21</v>
       </c>
       <c r="F774" s="2">
-        <v>46053</v>
+        <v>46143</v>
       </c>
       <c r="G774" s="2">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H774" s="2">
         <v>46053</v>
@@ -23282,10 +23282,10 @@
         <v>21</v>
       </c>
       <c r="F775" s="2">
-        <v>46067</v>
+        <v>46143</v>
       </c>
       <c r="G775" s="2">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H775" s="2">
         <v>46085</v>
@@ -23311,7 +23311,7 @@
         <v>21</v>
       </c>
       <c r="F776" s="2">
-        <v>46134</v>
+        <v>46157</v>
       </c>
       <c r="G776" s="2">
         <v>3</v>
@@ -23340,10 +23340,10 @@
         <v>21</v>
       </c>
       <c r="F777" s="2">
-        <v>46142</v>
+        <v>46226</v>
       </c>
       <c r="G777" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H777" s="2">
         <v>46142</v>
@@ -23369,10 +23369,10 @@
         <v>21</v>
       </c>
       <c r="F778" s="2">
-        <v>46143</v>
+        <v>46234</v>
       </c>
       <c r="G778" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H778" s="2">
         <v>46143</v>
@@ -23398,10 +23398,10 @@
         <v>21</v>
       </c>
       <c r="F779" s="2">
-        <v>46143</v>
+        <v>46235</v>
       </c>
       <c r="G779" s="2">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="H779" s="2">
         <v>46143</v>
@@ -23427,10 +23427,10 @@
         <v>21</v>
       </c>
       <c r="F780" s="2">
-        <v>46157</v>
+        <v>46235</v>
       </c>
       <c r="G780" s="2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="H780" s="2">
         <v>46177</v>
@@ -23456,7 +23456,7 @@
         <v>21</v>
       </c>
       <c r="F781" s="2">
-        <v>46226</v>
+        <v>46246</v>
       </c>
       <c r="G781" s="2">
         <v>3</v>
@@ -23485,10 +23485,10 @@
         <v>21</v>
       </c>
       <c r="F782" s="2">
-        <v>46234</v>
+        <v>46352</v>
       </c>
       <c r="G782" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H782" s="2">
         <v>46234</v>
@@ -23514,10 +23514,10 @@
         <v>21</v>
       </c>
       <c r="F783" s="2">
-        <v>46235</v>
+        <v>46360</v>
       </c>
       <c r="G783" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H783" s="2">
         <v>46235</v>
@@ -23543,10 +23543,10 @@
         <v>21</v>
       </c>
       <c r="F784" s="2">
-        <v>46235</v>
+        <v>46362</v>
       </c>
       <c r="G784" s="2">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H784" s="2">
         <v>46235</v>
@@ -23572,10 +23572,10 @@
         <v>21</v>
       </c>
       <c r="F785" s="2">
-        <v>46246</v>
+        <v>46362</v>
       </c>
       <c r="G785" s="2">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H785" s="2">
         <v>46303</v>
@@ -23601,7 +23601,7 @@
         <v>21</v>
       </c>
       <c r="F786" s="2">
-        <v>46352</v>
+        <v>46376</v>
       </c>
       <c r="G786" s="2">
         <v>3</v>
@@ -23630,10 +23630,10 @@
         <v>21</v>
       </c>
       <c r="F787" s="2">
-        <v>46360</v>
+        <v>46535</v>
       </c>
       <c r="G787" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H787" s="2">
         <v>46360</v>
@@ -23659,10 +23659,10 @@
         <v>21</v>
       </c>
       <c r="F788" s="2">
-        <v>46362</v>
+        <v>46545</v>
       </c>
       <c r="G788" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H788" s="2">
         <v>46362</v>
@@ -23688,10 +23688,10 @@
         <v>21</v>
       </c>
       <c r="F789" s="2">
-        <v>46362</v>
+        <v>46547</v>
       </c>
       <c r="G789" s="2">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="H789" s="2">
         <v>46362</v>
@@ -23717,10 +23717,10 @@
         <v>21</v>
       </c>
       <c r="F790" s="2">
-        <v>46376</v>
+        <v>46547</v>
       </c>
       <c r="G790" s="2">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H790" s="2">
         <v>46486</v>
@@ -23746,7 +23746,7 @@
         <v>21</v>
       </c>
       <c r="F791" s="2">
-        <v>46535</v>
+        <v>46561</v>
       </c>
       <c r="G791" s="2">
         <v>3</v>
@@ -23775,10 +23775,10 @@
         <v>21</v>
       </c>
       <c r="F792" s="2">
-        <v>46545</v>
+        <v>46709</v>
       </c>
       <c r="G792" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H792" s="2">
         <v>46545</v>
@@ -23804,10 +23804,10 @@
         <v>21</v>
       </c>
       <c r="F793" s="2">
-        <v>46547</v>
+        <v>46717</v>
       </c>
       <c r="G793" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H793" s="2">
         <v>46547</v>
@@ -23833,10 +23833,10 @@
         <v>21</v>
       </c>
       <c r="F794" s="2">
-        <v>46547</v>
+        <v>46718</v>
       </c>
       <c r="G794" s="2">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="H794" s="2">
         <v>46547</v>
@@ -23862,10 +23862,10 @@
         <v>21</v>
       </c>
       <c r="F795" s="2">
-        <v>46561</v>
+        <v>46718</v>
       </c>
       <c r="G795" s="2">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H795" s="2">
         <v>46660</v>
@@ -23891,7 +23891,7 @@
         <v>21</v>
       </c>
       <c r="F796" s="2">
-        <v>46709</v>
+        <v>46732</v>
       </c>
       <c r="G796" s="2">
         <v>3</v>
@@ -23920,10 +23920,10 @@
         <v>21</v>
       </c>
       <c r="F797" s="2">
-        <v>46717</v>
+        <v>46799</v>
       </c>
       <c r="G797" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H797" s="2">
         <v>46717</v>
@@ -23949,10 +23949,10 @@
         <v>21</v>
       </c>
       <c r="F798" s="2">
-        <v>46718</v>
+        <v>46807</v>
       </c>
       <c r="G798" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H798" s="2">
         <v>46718</v>
@@ -23978,10 +23978,10 @@
         <v>21</v>
       </c>
       <c r="F799" s="2">
-        <v>46718</v>
+        <v>46808</v>
       </c>
       <c r="G799" s="2">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H799" s="2">
         <v>46718</v>
@@ -24007,10 +24007,10 @@
         <v>21</v>
       </c>
       <c r="F800" s="2">
-        <v>46732</v>
+        <v>46808</v>
       </c>
       <c r="G800" s="2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="H800" s="2">
         <v>46750</v>
@@ -24036,7 +24036,7 @@
         <v>21</v>
       </c>
       <c r="F801" s="2">
-        <v>46799</v>
+        <v>46822</v>
       </c>
       <c r="G801" s="2">
         <v>3</v>
@@ -24065,10 +24065,10 @@
         <v>21</v>
       </c>
       <c r="F802" s="2">
-        <v>46807</v>
+        <v>46889</v>
       </c>
       <c r="G802" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H802" s="2">
         <v>46807</v>
@@ -24094,10 +24094,10 @@
         <v>21</v>
       </c>
       <c r="F803" s="2">
-        <v>46808</v>
+        <v>46897</v>
       </c>
       <c r="G803" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H803" s="2">
         <v>46808</v>
@@ -24123,10 +24123,10 @@
         <v>21</v>
       </c>
       <c r="F804" s="2">
-        <v>46808</v>
+        <v>46898</v>
       </c>
       <c r="G804" s="2">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H804" s="2">
         <v>46808</v>
@@ -24152,10 +24152,10 @@
         <v>21</v>
       </c>
       <c r="F805" s="2">
-        <v>46822</v>
+        <v>46898</v>
       </c>
       <c r="G805" s="2">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H805" s="2">
         <v>46840</v>
@@ -24181,7 +24181,7 @@
         <v>21</v>
       </c>
       <c r="F806" s="2">
-        <v>46889</v>
+        <v>46912</v>
       </c>
       <c r="G806" s="2">
         <v>3</v>
@@ -24210,10 +24210,10 @@
         <v>21</v>
       </c>
       <c r="F807" s="2">
-        <v>46897</v>
+        <v>46979</v>
       </c>
       <c r="G807" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H807" s="2">
         <v>46897</v>
@@ -24239,10 +24239,10 @@
         <v>21</v>
       </c>
       <c r="F808" s="2">
-        <v>46898</v>
+        <v>46987</v>
       </c>
       <c r="G808" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H808" s="2">
         <v>46898</v>
@@ -24268,10 +24268,10 @@
         <v>21</v>
       </c>
       <c r="F809" s="2">
-        <v>46898</v>
+        <v>46989</v>
       </c>
       <c r="G809" s="2">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H809" s="2">
         <v>46898</v>
@@ -24297,10 +24297,10 @@
         <v>21</v>
       </c>
       <c r="F810" s="2">
-        <v>46912</v>
+        <v>46989</v>
       </c>
       <c r="G810" s="2">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H810" s="2">
         <v>46930</v>
@@ -24326,7 +24326,7 @@
         <v>21</v>
       </c>
       <c r="F811" s="2">
-        <v>46979</v>
+        <v>47003</v>
       </c>
       <c r="G811" s="2">
         <v>3</v>
@@ -24355,10 +24355,10 @@
         <v>21</v>
       </c>
       <c r="F812" s="2">
-        <v>46987</v>
+        <v>47102</v>
       </c>
       <c r="G812" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H812" s="2">
         <v>46987</v>
@@ -24384,10 +24384,10 @@
         <v>21</v>
       </c>
       <c r="F813" s="2">
-        <v>46989</v>
+        <v>47110</v>
       </c>
       <c r="G813" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H813" s="2">
         <v>46989</v>
@@ -24413,10 +24413,10 @@
         <v>21</v>
       </c>
       <c r="F814" s="2">
-        <v>46989</v>
+        <v>47111</v>
       </c>
       <c r="G814" s="2">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="H814" s="2">
         <v>46989</v>
@@ -24442,10 +24442,10 @@
         <v>21</v>
       </c>
       <c r="F815" s="2">
-        <v>47003</v>
+        <v>47111</v>
       </c>
       <c r="G815" s="2">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="H815" s="2">
         <v>47053</v>
@@ -24471,7 +24471,7 @@
         <v>21</v>
       </c>
       <c r="F816" s="2">
-        <v>47102</v>
+        <v>47125</v>
       </c>
       <c r="G816" s="2">
         <v>3</v>
@@ -24500,10 +24500,10 @@
         <v>21</v>
       </c>
       <c r="F817" s="2">
-        <v>47110</v>
+        <v>47192</v>
       </c>
       <c r="G817" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H817" s="2">
         <v>47110</v>
@@ -24529,10 +24529,10 @@
         <v>21</v>
       </c>
       <c r="F818" s="2">
-        <v>47111</v>
+        <v>47200</v>
       </c>
       <c r="G818" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H818" s="2">
         <v>47111</v>
@@ -24558,10 +24558,10 @@
         <v>21</v>
       </c>
       <c r="F819" s="2">
-        <v>47111</v>
+        <v>47201</v>
       </c>
       <c r="G819" s="2">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H819" s="2">
         <v>47111</v>
@@ -24587,10 +24587,10 @@
         <v>21</v>
       </c>
       <c r="F820" s="2">
-        <v>47125</v>
+        <v>47201</v>
       </c>
       <c r="G820" s="2">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="H820" s="2">
         <v>47143</v>
@@ -24616,7 +24616,7 @@
         <v>21</v>
       </c>
       <c r="F821" s="2">
-        <v>47192</v>
+        <v>47215</v>
       </c>
       <c r="G821" s="2">
         <v>3</v>
@@ -24645,7 +24645,7 @@
         <v>21</v>
       </c>
       <c r="F822" s="2">
-        <v>47200</v>
+        <v>47278</v>
       </c>
       <c r="G822" s="2">
         <v>5</v>
@@ -24674,10 +24674,10 @@
         <v>21</v>
       </c>
       <c r="F823" s="2">
-        <v>47201</v>
+        <v>47396</v>
       </c>
       <c r="G823" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H823" s="2">
         <v>47201</v>
@@ -24703,10 +24703,10 @@
         <v>21</v>
       </c>
       <c r="F824" s="2">
-        <v>47201</v>
+        <v>47849</v>
       </c>
       <c r="G824" s="2">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="H824" s="2">
         <v>47201</v>
@@ -24732,10 +24732,10 @@
         <v>21</v>
       </c>
       <c r="F825" s="2">
-        <v>47215</v>
+        <v>47857</v>
       </c>
       <c r="G825" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H825" s="2">
         <v>47233</v>
@@ -24761,10 +24761,10 @@
         <v>21</v>
       </c>
       <c r="F826" s="2">
-        <v>47278</v>
+        <v>47858</v>
       </c>
       <c r="G826" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H826" s="2">
         <v>47278</v>
@@ -24790,10 +24790,10 @@
         <v>21</v>
       </c>
       <c r="F827" s="2">
-        <v>47396</v>
+        <v>47858</v>
       </c>
       <c r="G827" s="2">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="H827" s="2">
         <v>47795</v>
@@ -24819,7 +24819,7 @@
         <v>21</v>
       </c>
       <c r="F828" s="2">
-        <v>47849</v>
+        <v>47870</v>
       </c>
       <c r="G828" s="2">
         <v>3</v>
@@ -24848,10 +24848,10 @@
         <v>21</v>
       </c>
       <c r="F829" s="2">
-        <v>47857</v>
+        <v>47956</v>
       </c>
       <c r="G829" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H829" s="2">
         <v>47857</v>
@@ -24877,10 +24877,10 @@
         <v>21</v>
       </c>
       <c r="F830" s="2">
-        <v>47858</v>
+        <v>47977</v>
       </c>
       <c r="G830" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H830" s="2">
         <v>47858</v>
@@ -24906,10 +24906,10 @@
         <v>21</v>
       </c>
       <c r="F831" s="2">
-        <v>47858</v>
+        <v>48042</v>
       </c>
       <c r="G831" s="2">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="H831" s="2">
         <v>47858</v>
@@ -24935,10 +24935,10 @@
         <v>21</v>
       </c>
       <c r="F832" s="2">
-        <v>47870</v>
+        <v>48050</v>
       </c>
       <c r="G832" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H832" s="2">
         <v>47992</v>
@@ -24964,10 +24964,10 @@
         <v>21</v>
       </c>
       <c r="F833" s="2">
-        <v>47956</v>
+        <v>48051</v>
       </c>
       <c r="G833" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H833" s="2">
         <v>47956</v>
@@ -24993,10 +24993,10 @@
         <v>21</v>
       </c>
       <c r="F834" s="2">
-        <v>47977</v>
+        <v>48051</v>
       </c>
       <c r="G834" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H834" s="2">
         <v>47977</v>
@@ -25022,7 +25022,7 @@
         <v>21</v>
       </c>
       <c r="F835" s="2">
-        <v>48042</v>
+        <v>48072</v>
       </c>
       <c r="G835" s="2">
         <v>3</v>
@@ -25051,10 +25051,10 @@
         <v>21</v>
       </c>
       <c r="F836" s="2">
-        <v>48050</v>
+        <v>48158</v>
       </c>
       <c r="G836" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H836" s="2">
         <v>48050</v>
@@ -25080,10 +25080,10 @@
         <v>21</v>
       </c>
       <c r="F837" s="2">
-        <v>48051</v>
+        <v>48166</v>
       </c>
       <c r="G837" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H837" s="2">
         <v>48051</v>
@@ -25109,10 +25109,10 @@
         <v>21</v>
       </c>
       <c r="F838" s="2">
-        <v>48051</v>
+        <v>48169</v>
       </c>
       <c r="G838" s="2">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H838" s="2">
         <v>48051</v>
@@ -25138,10 +25138,10 @@
         <v>21</v>
       </c>
       <c r="F839" s="2">
-        <v>48072</v>
+        <v>48169</v>
       </c>
       <c r="G839" s="2">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H839" s="2">
         <v>48103</v>
@@ -25167,7 +25167,7 @@
         <v>21</v>
       </c>
       <c r="F840" s="2">
-        <v>48158</v>
+        <v>48186</v>
       </c>
       <c r="G840" s="2">
         <v>3</v>
@@ -25196,10 +25196,10 @@
         <v>21</v>
       </c>
       <c r="F841" s="2">
-        <v>48166</v>
+        <v>48336</v>
       </c>
       <c r="G841" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H841" s="2">
         <v>48166</v>
@@ -25225,10 +25225,10 @@
         <v>21</v>
       </c>
       <c r="F842" s="2">
-        <v>48169</v>
+        <v>48434</v>
       </c>
       <c r="G842" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H842" s="2">
         <v>48169</v>
@@ -25254,10 +25254,10 @@
         <v>21</v>
       </c>
       <c r="F843" s="2">
-        <v>48169</v>
+        <v>48442</v>
       </c>
       <c r="G843" s="2">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="H843" s="2">
         <v>48169</v>
@@ -25283,10 +25283,10 @@
         <v>21</v>
       </c>
       <c r="F844" s="2">
-        <v>48186</v>
+        <v>48443</v>
       </c>
       <c r="G844" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H844" s="2">
         <v>48384</v>
@@ -25312,10 +25312,10 @@
         <v>21</v>
       </c>
       <c r="F845" s="2">
-        <v>48336</v>
+        <v>48443</v>
       </c>
       <c r="G845" s="2">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="H845" s="2">
         <v>48336</v>
@@ -25341,7 +25341,7 @@
         <v>21</v>
       </c>
       <c r="F846" s="2">
-        <v>48434</v>
+        <v>48455</v>
       </c>
       <c r="G846" s="2">
         <v>3</v>
@@ -25370,10 +25370,10 @@
         <v>21</v>
       </c>
       <c r="F847" s="2">
-        <v>48442</v>
+        <v>48698</v>
       </c>
       <c r="G847" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H847" s="2">
         <v>48442</v>
@@ -25399,10 +25399,10 @@
         <v>21</v>
       </c>
       <c r="F848" s="2">
-        <v>48443</v>
+        <v>48706</v>
       </c>
       <c r="G848" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H848" s="2">
         <v>48443</v>
@@ -25428,10 +25428,10 @@
         <v>21</v>
       </c>
       <c r="F849" s="2">
-        <v>48443</v>
+        <v>48707</v>
       </c>
       <c r="G849" s="2">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H849" s="2">
         <v>48443</v>
@@ -25457,10 +25457,10 @@
         <v>21</v>
       </c>
       <c r="F850" s="2">
-        <v>48455</v>
+        <v>48707</v>
       </c>
       <c r="G850" s="2">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="H850" s="2">
         <v>48649</v>
@@ -25486,7 +25486,7 @@
         <v>21</v>
       </c>
       <c r="F851" s="2">
-        <v>48698</v>
+        <v>48718</v>
       </c>
       <c r="G851" s="2">
         <v>3</v>
@@ -25515,7 +25515,7 @@
         <v>21</v>
       </c>
       <c r="F852" s="2">
-        <v>48706</v>
+        <v>48861</v>
       </c>
       <c r="G852" s="2">
         <v>5</v>
@@ -25544,10 +25544,10 @@
         <v>21</v>
       </c>
       <c r="F853" s="2">
-        <v>48707</v>
+        <v>48947</v>
       </c>
       <c r="G853" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H853" s="2">
         <v>48707</v>
@@ -25573,10 +25573,10 @@
         <v>21</v>
       </c>
       <c r="F854" s="2">
-        <v>48707</v>
+        <v>49331</v>
       </c>
       <c r="G854" s="2">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="H854" s="2">
         <v>48707</v>
@@ -25602,10 +25602,10 @@
         <v>21</v>
       </c>
       <c r="F855" s="2">
-        <v>48718</v>
+        <v>49738</v>
       </c>
       <c r="G855" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H855" s="2">
         <v>48809</v>
@@ -25631,10 +25631,10 @@
         <v>21</v>
       </c>
       <c r="F856" s="2">
-        <v>48861</v>
+        <v>49751</v>
       </c>
       <c r="G856" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H856" s="2">
         <v>48861</v>
@@ -25660,10 +25660,10 @@
         <v>21</v>
       </c>
       <c r="F857" s="2">
-        <v>48947</v>
+        <v>49853</v>
       </c>
       <c r="G857" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H857" s="2">
         <v>49701</v>
@@ -25689,10 +25689,10 @@
         <v>21</v>
       </c>
       <c r="F858" s="2">
-        <v>49331</v>
+        <v>49866</v>
       </c>
       <c r="G858" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H858" s="2">
         <v>49331</v>
@@ -25718,7 +25718,7 @@
         <v>21</v>
       </c>
       <c r="F859" s="2">
-        <v>49738</v>
+        <v>49964</v>
       </c>
       <c r="G859" s="2">
         <v>5</v>
@@ -25747,7 +25747,7 @@
         <v>21</v>
       </c>
       <c r="F860" s="2">
-        <v>49751</v>
+        <v>49977</v>
       </c>
       <c r="G860" s="2">
         <v>3</v>
@@ -25776,7 +25776,7 @@
         <v>21</v>
       </c>
       <c r="F861" s="2">
-        <v>49853</v>
+        <v>50095</v>
       </c>
       <c r="G861" s="2">
         <v>5</v>
@@ -25805,7 +25805,7 @@
         <v>21</v>
       </c>
       <c r="F862" s="2">
-        <v>49866</v>
+        <v>50108</v>
       </c>
       <c r="G862" s="2">
         <v>3</v>
@@ -25834,10 +25834,10 @@
         <v>21</v>
       </c>
       <c r="F863" s="2">
-        <v>49964</v>
+        <v>50254</v>
       </c>
       <c r="G863" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H863" s="2">
         <v>49964</v>
@@ -25863,10 +25863,10 @@
         <v>21</v>
       </c>
       <c r="F864" s="2">
-        <v>49977</v>
+        <v>50262</v>
       </c>
       <c r="G864" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H864" s="2">
         <v>50058</v>
@@ -25892,10 +25892,10 @@
         <v>21</v>
       </c>
       <c r="F865" s="2">
-        <v>50095</v>
+        <v>50263</v>
       </c>
       <c r="G865" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H865" s="2">
         <v>50095</v>
@@ -25921,10 +25921,10 @@
         <v>21</v>
       </c>
       <c r="F866" s="2">
-        <v>50108</v>
+        <v>50263</v>
       </c>
       <c r="G866" s="2">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H866" s="2">
         <v>50207</v>
@@ -25950,7 +25950,7 @@
         <v>21</v>
       </c>
       <c r="F867" s="2">
-        <v>50254</v>
+        <v>50278</v>
       </c>
       <c r="G867" s="2">
         <v>3</v>
@@ -25979,10 +25979,10 @@
         <v>21</v>
       </c>
       <c r="F868" s="2">
-        <v>50262</v>
+        <v>50347</v>
       </c>
       <c r="G868" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H868" s="2">
         <v>50262</v>
@@ -26008,10 +26008,10 @@
         <v>21</v>
       </c>
       <c r="F869" s="2">
-        <v>50263</v>
+        <v>50355</v>
       </c>
       <c r="G869" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H869" s="2">
         <v>50263</v>
@@ -26037,10 +26037,10 @@
         <v>21</v>
       </c>
       <c r="F870" s="2">
-        <v>50263</v>
+        <v>50356</v>
       </c>
       <c r="G870" s="2">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H870" s="2">
         <v>50263</v>
@@ -26066,10 +26066,10 @@
         <v>21</v>
       </c>
       <c r="F871" s="2">
-        <v>50278</v>
+        <v>50356</v>
       </c>
       <c r="G871" s="2">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="H871" s="2">
         <v>50300</v>
@@ -26095,7 +26095,7 @@
         <v>21</v>
       </c>
       <c r="F872" s="2">
-        <v>50347</v>
+        <v>50371</v>
       </c>
       <c r="G872" s="2">
         <v>3</v>
@@ -26124,7 +26124,7 @@
         <v>21</v>
       </c>
       <c r="F873" s="2">
-        <v>50355</v>
+        <v>50525</v>
       </c>
       <c r="G873" s="2">
         <v>5</v>
@@ -26153,10 +26153,10 @@
         <v>21</v>
       </c>
       <c r="F874" s="2">
-        <v>50356</v>
+        <v>50547</v>
       </c>
       <c r="G874" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H874" s="2">
         <v>50356</v>
@@ -26182,10 +26182,10 @@
         <v>21</v>
       </c>
       <c r="F875" s="2">
-        <v>50356</v>
+        <v>50552</v>
       </c>
       <c r="G875" s="2">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H875" s="2">
         <v>50356</v>
@@ -26211,10 +26211,10 @@
         <v>21</v>
       </c>
       <c r="F876" s="2">
-        <v>50371</v>
+        <v>50685</v>
       </c>
       <c r="G876" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H876" s="2">
         <v>50381</v>
@@ -26240,10 +26240,10 @@
         <v>21</v>
       </c>
       <c r="F877" s="2">
-        <v>50525</v>
+        <v>50685</v>
       </c>
       <c r="G877" s="2">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="H877" s="2">
         <v>50525</v>
@@ -26269,10 +26269,10 @@
         <v>21</v>
       </c>
       <c r="F878" s="2">
-        <v>50547</v>
+        <v>50844</v>
       </c>
       <c r="G878" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H878" s="2">
         <v>51995</v>
@@ -26298,10 +26298,10 @@
         <v>21</v>
       </c>
       <c r="F879" s="2">
-        <v>50552</v>
+        <v>50885</v>
       </c>
       <c r="G879" s="2">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H879" s="2">
         <v>50552</v>
@@ -26327,10 +26327,10 @@
         <v>21</v>
       </c>
       <c r="F880" s="2">
-        <v>50685</v>
+        <v>51027</v>
       </c>
       <c r="G880" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H880" s="2">
         <v>50685</v>
@@ -26356,10 +26356,10 @@
         <v>21</v>
       </c>
       <c r="F881" s="2">
-        <v>50685</v>
+        <v>51032</v>
       </c>
       <c r="G881" s="2">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H881" s="2">
         <v>50685</v>
@@ -26385,10 +26385,10 @@
         <v>21</v>
       </c>
       <c r="F882" s="2">
-        <v>50844</v>
+        <v>51172</v>
       </c>
       <c r="G882" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H882" s="2">
         <v>50844</v>
@@ -26414,10 +26414,10 @@
         <v>21</v>
       </c>
       <c r="F883" s="2">
-        <v>50885</v>
+        <v>51899</v>
       </c>
       <c r="G883" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H883" s="2">
         <v>50885</v>
@@ -26443,10 +26443,10 @@
         <v>21</v>
       </c>
       <c r="F884" s="2">
-        <v>51027</v>
+        <v>51941</v>
       </c>
       <c r="G884" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H884" s="2">
         <v>51027</v>
@@ -26472,10 +26472,10 @@
         <v>21</v>
       </c>
       <c r="F885" s="2">
-        <v>51032</v>
+        <v>52045</v>
       </c>
       <c r="G885" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H885" s="2">
         <v>51032</v>
@@ -26501,10 +26501,10 @@
         <v>21</v>
       </c>
       <c r="F886" s="2">
-        <v>51172</v>
+        <v>52056</v>
       </c>
       <c r="G886" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H886" s="2">
         <v>51172</v>
@@ -26530,7 +26530,7 @@
         <v>21</v>
       </c>
       <c r="F887" s="2">
-        <v>51899</v>
+        <v>52058</v>
       </c>
       <c r="G887" s="2">
         <v>17</v>
@@ -26559,10 +26559,10 @@
         <v>21</v>
       </c>
       <c r="F888" s="2">
-        <v>51941</v>
+        <v>52058</v>
       </c>
       <c r="G888" s="2">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="H888" s="2">
         <v>51941</v>
@@ -26588,7 +26588,7 @@
         <v>21</v>
       </c>
       <c r="F889" s="2">
-        <v>52045</v>
+        <v>52075</v>
       </c>
       <c r="G889" s="2">
         <v>3</v>
@@ -26617,7 +26617,7 @@
         <v>21</v>
       </c>
       <c r="F890" s="2">
-        <v>52056</v>
+        <v>52204</v>
       </c>
       <c r="G890" s="2">
         <v>5</v>
@@ -26646,10 +26646,10 @@
         <v>21</v>
       </c>
       <c r="F891" s="2">
-        <v>52058</v>
+        <v>52234</v>
       </c>
       <c r="G891" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H891" s="2">
         <v>52058</v>
@@ -26675,10 +26675,10 @@
         <v>21</v>
       </c>
       <c r="F892" s="2">
-        <v>52058</v>
+        <v>52651</v>
       </c>
       <c r="G892" s="2">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="H892" s="2">
         <v>52058</v>
@@ -26704,7 +26704,7 @@
         <v>21</v>
       </c>
       <c r="F893" s="2">
-        <v>52075</v>
+        <v>52677</v>
       </c>
       <c r="G893" s="2">
         <v>3</v>
@@ -26733,7 +26733,7 @@
         <v>21</v>
       </c>
       <c r="F894" s="2">
-        <v>52204</v>
+        <v>53232</v>
       </c>
       <c r="G894" s="2">
         <v>5</v>
@@ -26762,7 +26762,7 @@
         <v>21</v>
       </c>
       <c r="F895" s="2">
-        <v>52234</v>
+        <v>53263</v>
       </c>
       <c r="G895" s="2">
         <v>3</v>
@@ -26791,7 +26791,7 @@
         <v>21</v>
       </c>
       <c r="F896" s="2">
-        <v>52651</v>
+        <v>53613</v>
       </c>
       <c r="G896" s="2">
         <v>5</v>
@@ -26820,7 +26820,7 @@
         <v>21</v>
       </c>
       <c r="F897" s="2">
-        <v>52677</v>
+        <v>53667</v>
       </c>
       <c r="G897" s="2">
         <v>3</v>
@@ -26849,7 +26849,7 @@
         <v>21</v>
       </c>
       <c r="F898" s="2">
-        <v>53232</v>
+        <v>54408</v>
       </c>
       <c r="G898" s="2">
         <v>5</v>
@@ -26878,7 +26878,7 @@
         <v>21</v>
       </c>
       <c r="F899" s="2">
-        <v>53263</v>
+        <v>54440</v>
       </c>
       <c r="G899" s="2">
         <v>3</v>
@@ -26907,7 +26907,7 @@
         <v>21</v>
       </c>
       <c r="F900" s="2">
-        <v>53613</v>
+        <v>54826</v>
       </c>
       <c r="G900" s="2">
         <v>5</v>
@@ -26936,7 +26936,7 @@
         <v>21</v>
       </c>
       <c r="F901" s="2">
-        <v>53667</v>
+        <v>54853</v>
       </c>
       <c r="G901" s="2">
         <v>3</v>
@@ -26965,7 +26965,7 @@
         <v>21</v>
       </c>
       <c r="F902" s="2">
-        <v>54408</v>
+        <v>55845</v>
       </c>
       <c r="G902" s="2">
         <v>5</v>
@@ -26994,7 +26994,7 @@
         <v>21</v>
       </c>
       <c r="F903" s="2">
-        <v>54440</v>
+        <v>55867</v>
       </c>
       <c r="G903" s="2">
         <v>3</v>
@@ -27023,10 +27023,10 @@
         <v>21</v>
       </c>
       <c r="F904" s="2">
-        <v>54826</v>
+        <v>56115</v>
       </c>
       <c r="G904" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H904" s="2">
         <v>54826</v>
@@ -27052,10 +27052,10 @@
         <v>21</v>
       </c>
       <c r="F905" s="2">
-        <v>54853</v>
+        <v>56161</v>
       </c>
       <c r="G905" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H905" s="2">
         <v>55756</v>
@@ -27081,10 +27081,10 @@
         <v>21</v>
       </c>
       <c r="F906" s="2">
-        <v>55845</v>
+        <v>56195</v>
       </c>
       <c r="G906" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H906" s="2">
         <v>55845</v>
@@ -27110,10 +27110,10 @@
         <v>21</v>
       </c>
       <c r="F907" s="2">
-        <v>55867</v>
+        <v>56294</v>
       </c>
       <c r="G907" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H907" s="2">
         <v>56147</v>
@@ -27139,10 +27139,10 @@
         <v>21</v>
       </c>
       <c r="F908" s="2">
-        <v>56115</v>
+        <v>56704</v>
       </c>
       <c r="G908" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H908" s="2">
         <v>56115</v>
@@ -27168,10 +27168,10 @@
         <v>21</v>
       </c>
       <c r="F909" s="2">
-        <v>56161</v>
+        <v>56908</v>
       </c>
       <c r="G909" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H909" s="2">
         <v>56161</v>
@@ -27197,10 +27197,10 @@
         <v>21</v>
       </c>
       <c r="F910" s="2">
-        <v>56195</v>
+        <v>57076</v>
       </c>
       <c r="G910" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H910" s="2">
         <v>57668</v>
@@ -27226,10 +27226,10 @@
         <v>21</v>
       </c>
       <c r="F911" s="2">
-        <v>56294</v>
+        <v>57104</v>
       </c>
       <c r="G911" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H911" s="2">
         <v>56294</v>
@@ -27255,10 +27255,10 @@
         <v>21</v>
       </c>
       <c r="F912" s="2">
-        <v>56704</v>
+        <v>57736</v>
       </c>
       <c r="G912" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H912" s="2">
         <v>56704</v>
@@ -27284,10 +27284,10 @@
         <v>21</v>
       </c>
       <c r="F913" s="2">
-        <v>56908</v>
+        <v>57739</v>
       </c>
       <c r="G913" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H913" s="2">
         <v>56908</v>
@@ -27313,10 +27313,10 @@
         <v>21</v>
       </c>
       <c r="F914" s="2">
-        <v>57076</v>
+        <v>57872</v>
       </c>
       <c r="G914" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H914" s="2">
         <v>57076</v>
@@ -27342,10 +27342,10 @@
         <v>21</v>
       </c>
       <c r="F915" s="2">
-        <v>57104</v>
+        <v>57880</v>
       </c>
       <c r="G915" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H915" s="2">
         <v>57104</v>
@@ -27371,10 +27371,10 @@
         <v>21</v>
       </c>
       <c r="F916" s="2">
-        <v>57736</v>
+        <v>57882</v>
       </c>
       <c r="G916" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H916" s="2">
         <v>57736</v>
@@ -27400,10 +27400,10 @@
         <v>21</v>
       </c>
       <c r="F917" s="2">
-        <v>57739</v>
+        <v>57882</v>
       </c>
       <c r="G917" s="2">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="H917" s="2">
         <v>57857</v>
@@ -27429,7 +27429,7 @@
         <v>21</v>
       </c>
       <c r="F918" s="2">
-        <v>57872</v>
+        <v>57891</v>
       </c>
       <c r="G918" s="2">
         <v>3</v>
@@ -27458,10 +27458,10 @@
         <v>21</v>
       </c>
       <c r="F919" s="2">
-        <v>57880</v>
+        <v>57970</v>
       </c>
       <c r="G919" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H919" s="2">
         <v>57880</v>
@@ -27487,10 +27487,10 @@
         <v>21</v>
       </c>
       <c r="F920" s="2">
-        <v>57882</v>
+        <v>57978</v>
       </c>
       <c r="G920" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H920" s="2">
         <v>57882</v>
@@ -27516,10 +27516,10 @@
         <v>21</v>
       </c>
       <c r="F921" s="2">
-        <v>57882</v>
+        <v>57980</v>
       </c>
       <c r="G921" s="2">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H921" s="2">
         <v>57882</v>
@@ -27545,10 +27545,10 @@
         <v>21</v>
       </c>
       <c r="F922" s="2">
-        <v>57891</v>
+        <v>57980</v>
       </c>
       <c r="G922" s="2">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="H922" s="2">
         <v>57955</v>
@@ -27574,7 +27574,7 @@
         <v>21</v>
       </c>
       <c r="F923" s="2">
-        <v>57970</v>
+        <v>57989</v>
       </c>
       <c r="G923" s="2">
         <v>3</v>
@@ -27603,7 +27603,7 @@
         <v>21</v>
       </c>
       <c r="F924" s="2">
-        <v>57978</v>
+        <v>58112</v>
       </c>
       <c r="G924" s="2">
         <v>5</v>
@@ -27632,10 +27632,10 @@
         <v>21</v>
       </c>
       <c r="F925" s="2">
-        <v>57980</v>
+        <v>58166</v>
       </c>
       <c r="G925" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H925" s="2">
         <v>57980</v>
@@ -27661,10 +27661,10 @@
         <v>21</v>
       </c>
       <c r="F926" s="2">
-        <v>57980</v>
+        <v>58480</v>
       </c>
       <c r="G926" s="2">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="H926" s="2">
         <v>57980</v>
@@ -27690,10 +27690,10 @@
         <v>21</v>
       </c>
       <c r="F927" s="2">
-        <v>57989</v>
+        <v>58987</v>
       </c>
       <c r="G927" s="2">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="H927" s="2">
         <v>58053</v>
@@ -27719,10 +27719,10 @@
         <v>21</v>
       </c>
       <c r="F928" s="2">
-        <v>58112</v>
+        <v>58987</v>
       </c>
       <c r="G928" s="2">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="H928" s="2">
         <v>58112</v>
@@ -27748,10 +27748,10 @@
         <v>21</v>
       </c>
       <c r="F929" s="2">
-        <v>58166</v>
+        <v>59422</v>
       </c>
       <c r="G929" s="2">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="H929" s="2">
         <v>59448</v>
@@ -27777,10 +27777,10 @@
         <v>21</v>
       </c>
       <c r="F930" s="2">
-        <v>58480</v>
+        <v>59498</v>
       </c>
       <c r="G930" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H930" s="2">
         <v>58480</v>
@@ -27806,10 +27806,10 @@
         <v>21</v>
       </c>
       <c r="F931" s="2">
-        <v>58987</v>
+        <v>59512</v>
       </c>
       <c r="G931" s="2">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="H931" s="2">
         <v>58987</v>
@@ -27835,10 +27835,10 @@
         <v>21</v>
       </c>
       <c r="F932" s="2">
-        <v>58987</v>
+        <v>59568</v>
       </c>
       <c r="G932" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="H932" s="2">
         <v>58987</v>
@@ -27864,10 +27864,10 @@
         <v>21</v>
       </c>
       <c r="F933" s="2">
-        <v>59422</v>
+        <v>59583</v>
       </c>
       <c r="G933" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H933" s="2">
         <v>59422</v>
@@ -27893,10 +27893,10 @@
         <v>21</v>
       </c>
       <c r="F934" s="2">
-        <v>59498</v>
+        <v>59614</v>
       </c>
       <c r="G934" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H934" s="2">
         <v>59498</v>
@@ -27922,10 +27922,10 @@
         <v>21</v>
       </c>
       <c r="F935" s="2">
-        <v>59512</v>
+        <v>59641</v>
       </c>
       <c r="G935" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H935" s="2">
         <v>59830</v>
@@ -27951,10 +27951,10 @@
         <v>21</v>
       </c>
       <c r="F936" s="2">
-        <v>59568</v>
+        <v>59868</v>
       </c>
       <c r="G936" s="2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H936" s="2">
         <v>59568</v>
@@ -27980,10 +27980,10 @@
         <v>21</v>
       </c>
       <c r="F937" s="2">
-        <v>59583</v>
+        <v>59880</v>
       </c>
       <c r="G937" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H937" s="2">
         <v>59583</v>
@@ -27993,120 +27993,36 @@
       </c>
     </row>
     <row r="938" spans="1:9">
-      <c r="A938" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B938" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C938" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D938" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E938" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F938" s="2">
-        <v>59614</v>
-      </c>
-      <c r="G938" s="2">
-        <v>29</v>
-      </c>
-      <c r="H938" s="2">
-        <v>59614</v>
-      </c>
-      <c r="I938" s="2">
-        <v>75</v>
-      </c>
+      <c r="A938" s="1"/>
+      <c r="B938" s="2"/>
+      <c r="C938" s="2"/>
+      <c r="D938" s="2"/>
+      <c r="H938" s="2"/>
+      <c r="I938" s="2"/>
     </row>
     <row r="939" spans="1:9">
-      <c r="A939" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B939" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C939" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D939" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E939" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F939" s="2">
-        <v>59641</v>
-      </c>
-      <c r="G939" s="2">
-        <v>23</v>
-      </c>
-      <c r="H939" s="2">
-        <v>59641</v>
-      </c>
-      <c r="I939" s="2">
-        <v>72</v>
-      </c>
+      <c r="A939" s="1"/>
+      <c r="B939" s="2"/>
+      <c r="C939" s="2"/>
+      <c r="D939" s="2"/>
+      <c r="H939" s="2"/>
+      <c r="I939" s="2"/>
     </row>
     <row r="940" spans="1:9">
-      <c r="A940" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B940" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C940" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D940" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E940" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F940" s="2">
-        <v>59868</v>
-      </c>
-      <c r="G940" s="2">
-        <v>5</v>
-      </c>
-      <c r="H940" s="2">
-        <v>59868</v>
-      </c>
-      <c r="I940" s="2">
-        <v>57</v>
-      </c>
+      <c r="A940" s="1"/>
+      <c r="B940" s="2"/>
+      <c r="C940" s="2"/>
+      <c r="D940" s="2"/>
+      <c r="H940" s="2"/>
+      <c r="I940" s="2"/>
     </row>
     <row r="941" spans="1:9">
-      <c r="A941" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B941" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C941" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D941" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E941" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F941" s="2">
-        <v>59880</v>
-      </c>
-      <c r="G941" s="2">
-        <v>3</v>
-      </c>
-      <c r="H941" s="2">
-        <v>59928</v>
-      </c>
-      <c r="I941" s="2">
-        <v>5</v>
-      </c>
+      <c r="A941" s="1"/>
+      <c r="B941" s="2"/>
+      <c r="C941" s="2"/>
+      <c r="D941" s="2"/>
+      <c r="H941" s="2"/>
+      <c r="I941" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Tools/LGTM/LGTM++Results.xlsx
+++ b/Tools/LGTM/LGTM++Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexoneill/Documents/GitHub/OSC-Code/Tools/LGTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238CF1F-F928-AB4E-918A-F13DA092DCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B041AF-5E88-8B43-99DE-B0A05C432A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{061182E0-336D-334D-A733-F82518BD4873}"/>
   </bookViews>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F450ED-99A3-B242-A560-54A2B1D64CA9}">
   <dimension ref="A1:I941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
-      <selection activeCell="E939" sqref="E939"/>
+    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
